--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh sach KH ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2126,9 +2126,6 @@
     <t>ASOFT - CRM</t>
   </si>
   <si>
-    <t>CRMFXXX1</t>
-  </si>
-  <si>
     <t>Thị Phượng</t>
   </si>
   <si>
@@ -2250,9 +2247,6 @@
     <t>ToAccountID</t>
   </si>
   <si>
-    <t>Nếu được Check vào thì đổ Combobox</t>
-  </si>
-  <si>
     <t>DropdownChecklist</t>
   </si>
   <si>
@@ -2278,9 +2272,6 @@
   </si>
   <si>
     <t>BttnClose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực thi @SQL0003 </t>
   </si>
   <si>
     <t>CRMF3020</t>
@@ -2375,6 +2366,9 @@
   </si>
   <si>
     <t>Click vào BttnClose thực thi đóng màn hình CRMF3020 trở về màn hình CRMF3000</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0003  phụ thuộc vào DivisionID của Đơn vị</t>
   </si>
 </sst>
 </file>
@@ -3242,9 +3236,27 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3290,23 +3302,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3347,9 +3344,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3411,6 +3405,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3418,18 +3424,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4380,65 +4374,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4449,56 +4443,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4509,384 +4503,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="156"/>
-      <c r="BS28" s="156"/>
-      <c r="BT28" s="156"/>
-      <c r="BU28" s="156"/>
-      <c r="BV28" s="156"/>
-      <c r="BW28" s="156"/>
-      <c r="BX28" s="156"/>
-      <c r="BY28" s="156"/>
-      <c r="BZ28" s="156"/>
-      <c r="CA28" s="156"/>
-      <c r="CB28" s="156"/>
-      <c r="CC28" s="156"/>
-      <c r="CD28" s="156"/>
-      <c r="CE28" s="156"/>
-      <c r="CF28" s="156"/>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="156"/>
-      <c r="CI28" s="156"/>
-      <c r="CJ28" s="156"/>
-      <c r="CK28" s="156"/>
-      <c r="CL28" s="156"/>
-      <c r="CM28" s="156"/>
-      <c r="CN28" s="156"/>
-      <c r="CO28" s="156"/>
-      <c r="CP28" s="156"/>
-      <c r="CQ28" s="156"/>
-      <c r="CR28" s="156"/>
-      <c r="CS28" s="156"/>
-      <c r="CT28" s="156"/>
-      <c r="CU28" s="156"/>
-      <c r="CV28" s="156"/>
-      <c r="CW28" s="156"/>
-      <c r="CX28" s="156"/>
-      <c r="CY28" s="156"/>
-      <c r="CZ28" s="156"/>
-      <c r="DA28" s="156"/>
-      <c r="DB28" s="156"/>
-      <c r="DC28" s="156"/>
-      <c r="DD28" s="156"/>
-      <c r="DE28" s="156"/>
-      <c r="DF28" s="156"/>
-      <c r="DG28" s="156"/>
-      <c r="DH28" s="156"/>
-      <c r="DI28" s="156"/>
-      <c r="DJ28" s="156"/>
-      <c r="DK28" s="156"/>
-      <c r="DL28" s="156"/>
-      <c r="DM28" s="156"/>
-      <c r="DN28" s="156"/>
-      <c r="DO28" s="156"/>
-      <c r="DP28" s="156"/>
-      <c r="DQ28" s="156"/>
-      <c r="DR28" s="156"/>
-      <c r="DS28" s="156"/>
-      <c r="DT28" s="156"/>
-      <c r="DU28" s="156"/>
-      <c r="DV28" s="156"/>
-      <c r="DW28" s="156"/>
-      <c r="DX28" s="156"/>
-      <c r="DY28" s="156"/>
-      <c r="DZ28" s="156"/>
-      <c r="EA28" s="156"/>
-      <c r="EB28" s="156"/>
-      <c r="EC28" s="156"/>
-      <c r="ED28" s="156"/>
-      <c r="EE28" s="156"/>
-      <c r="EF28" s="156"/>
-      <c r="EG28" s="156"/>
-      <c r="EH28" s="156"/>
-      <c r="EI28" s="156"/>
-      <c r="EJ28" s="156"/>
-      <c r="EK28" s="156"/>
-      <c r="EL28" s="156"/>
-      <c r="EM28" s="156"/>
-      <c r="EN28" s="156"/>
-      <c r="EO28" s="156"/>
-      <c r="EP28" s="156"/>
-      <c r="EQ28" s="156"/>
-      <c r="ER28" s="156"/>
-      <c r="ES28" s="156"/>
-      <c r="ET28" s="156"/>
-      <c r="EU28" s="156"/>
-      <c r="EV28" s="156"/>
-      <c r="EW28" s="156"/>
-      <c r="EX28" s="156"/>
-      <c r="EY28" s="156"/>
-      <c r="EZ28" s="156"/>
-      <c r="FA28" s="156"/>
-      <c r="FB28" s="156"/>
-      <c r="FC28" s="156"/>
-      <c r="FD28" s="156"/>
-      <c r="FE28" s="156"/>
-      <c r="FF28" s="156"/>
-      <c r="FG28" s="156"/>
-      <c r="FH28" s="156"/>
-      <c r="FI28" s="156"/>
-      <c r="FJ28" s="156"/>
-      <c r="FK28" s="156"/>
-      <c r="FL28" s="156"/>
-      <c r="FM28" s="156"/>
-      <c r="FN28" s="156"/>
-      <c r="FO28" s="156"/>
-      <c r="FP28" s="156"/>
-      <c r="FQ28" s="156"/>
-      <c r="FR28" s="156"/>
-      <c r="FS28" s="156"/>
-      <c r="FT28" s="156"/>
-      <c r="FU28" s="156"/>
-      <c r="FV28" s="156"/>
-      <c r="FW28" s="156"/>
-      <c r="FX28" s="156"/>
-      <c r="FY28" s="156"/>
-      <c r="FZ28" s="156"/>
-      <c r="GA28" s="156"/>
-      <c r="GB28" s="156"/>
-      <c r="GC28" s="156"/>
-      <c r="GD28" s="156"/>
-      <c r="GE28" s="156"/>
-      <c r="GF28" s="156"/>
-      <c r="GG28" s="156"/>
-      <c r="GH28" s="156"/>
-      <c r="GI28" s="156"/>
-      <c r="GJ28" s="156"/>
-      <c r="GK28" s="156"/>
-      <c r="GL28" s="156"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+      <c r="AZ28" s="138"/>
+      <c r="BA28" s="138"/>
+      <c r="BB28" s="138"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="138"/>
+      <c r="BG28" s="138"/>
+      <c r="BH28" s="138"/>
+      <c r="BI28" s="138"/>
+      <c r="BJ28" s="138"/>
+      <c r="BK28" s="138"/>
+      <c r="BL28" s="138"/>
+      <c r="BM28" s="138"/>
+      <c r="BN28" s="138"/>
+      <c r="BO28" s="138"/>
+      <c r="BP28" s="138"/>
+      <c r="BQ28" s="138"/>
+      <c r="BR28" s="138"/>
+      <c r="BS28" s="138"/>
+      <c r="BT28" s="138"/>
+      <c r="BU28" s="138"/>
+      <c r="BV28" s="138"/>
+      <c r="BW28" s="138"/>
+      <c r="BX28" s="138"/>
+      <c r="BY28" s="138"/>
+      <c r="BZ28" s="138"/>
+      <c r="CA28" s="138"/>
+      <c r="CB28" s="138"/>
+      <c r="CC28" s="138"/>
+      <c r="CD28" s="138"/>
+      <c r="CE28" s="138"/>
+      <c r="CF28" s="138"/>
+      <c r="CG28" s="138"/>
+      <c r="CH28" s="138"/>
+      <c r="CI28" s="138"/>
+      <c r="CJ28" s="138"/>
+      <c r="CK28" s="138"/>
+      <c r="CL28" s="138"/>
+      <c r="CM28" s="138"/>
+      <c r="CN28" s="138"/>
+      <c r="CO28" s="138"/>
+      <c r="CP28" s="138"/>
+      <c r="CQ28" s="138"/>
+      <c r="CR28" s="138"/>
+      <c r="CS28" s="138"/>
+      <c r="CT28" s="138"/>
+      <c r="CU28" s="138"/>
+      <c r="CV28" s="138"/>
+      <c r="CW28" s="138"/>
+      <c r="CX28" s="138"/>
+      <c r="CY28" s="138"/>
+      <c r="CZ28" s="138"/>
+      <c r="DA28" s="138"/>
+      <c r="DB28" s="138"/>
+      <c r="DC28" s="138"/>
+      <c r="DD28" s="138"/>
+      <c r="DE28" s="138"/>
+      <c r="DF28" s="138"/>
+      <c r="DG28" s="138"/>
+      <c r="DH28" s="138"/>
+      <c r="DI28" s="138"/>
+      <c r="DJ28" s="138"/>
+      <c r="DK28" s="138"/>
+      <c r="DL28" s="138"/>
+      <c r="DM28" s="138"/>
+      <c r="DN28" s="138"/>
+      <c r="DO28" s="138"/>
+      <c r="DP28" s="138"/>
+      <c r="DQ28" s="138"/>
+      <c r="DR28" s="138"/>
+      <c r="DS28" s="138"/>
+      <c r="DT28" s="138"/>
+      <c r="DU28" s="138"/>
+      <c r="DV28" s="138"/>
+      <c r="DW28" s="138"/>
+      <c r="DX28" s="138"/>
+      <c r="DY28" s="138"/>
+      <c r="DZ28" s="138"/>
+      <c r="EA28" s="138"/>
+      <c r="EB28" s="138"/>
+      <c r="EC28" s="138"/>
+      <c r="ED28" s="138"/>
+      <c r="EE28" s="138"/>
+      <c r="EF28" s="138"/>
+      <c r="EG28" s="138"/>
+      <c r="EH28" s="138"/>
+      <c r="EI28" s="138"/>
+      <c r="EJ28" s="138"/>
+      <c r="EK28" s="138"/>
+      <c r="EL28" s="138"/>
+      <c r="EM28" s="138"/>
+      <c r="EN28" s="138"/>
+      <c r="EO28" s="138"/>
+      <c r="EP28" s="138"/>
+      <c r="EQ28" s="138"/>
+      <c r="ER28" s="138"/>
+      <c r="ES28" s="138"/>
+      <c r="ET28" s="138"/>
+      <c r="EU28" s="138"/>
+      <c r="EV28" s="138"/>
+      <c r="EW28" s="138"/>
+      <c r="EX28" s="138"/>
+      <c r="EY28" s="138"/>
+      <c r="EZ28" s="138"/>
+      <c r="FA28" s="138"/>
+      <c r="FB28" s="138"/>
+      <c r="FC28" s="138"/>
+      <c r="FD28" s="138"/>
+      <c r="FE28" s="138"/>
+      <c r="FF28" s="138"/>
+      <c r="FG28" s="138"/>
+      <c r="FH28" s="138"/>
+      <c r="FI28" s="138"/>
+      <c r="FJ28" s="138"/>
+      <c r="FK28" s="138"/>
+      <c r="FL28" s="138"/>
+      <c r="FM28" s="138"/>
+      <c r="FN28" s="138"/>
+      <c r="FO28" s="138"/>
+      <c r="FP28" s="138"/>
+      <c r="FQ28" s="138"/>
+      <c r="FR28" s="138"/>
+      <c r="FS28" s="138"/>
+      <c r="FT28" s="138"/>
+      <c r="FU28" s="138"/>
+      <c r="FV28" s="138"/>
+      <c r="FW28" s="138"/>
+      <c r="FX28" s="138"/>
+      <c r="FY28" s="138"/>
+      <c r="FZ28" s="138"/>
+      <c r="GA28" s="138"/>
+      <c r="GB28" s="138"/>
+      <c r="GC28" s="138"/>
+      <c r="GD28" s="138"/>
+      <c r="GE28" s="138"/>
+      <c r="GF28" s="138"/>
+      <c r="GG28" s="138"/>
+      <c r="GH28" s="138"/>
+      <c r="GI28" s="138"/>
+      <c r="GJ28" s="138"/>
+      <c r="GK28" s="138"/>
+      <c r="GL28" s="138"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4897,16 +4891,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4918,28 +4912,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4953,6 +4925,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5507,10 +5501,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5521,24 +5515,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5577,14 +5571,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5597,16 +5591,16 @@
         <v>42397</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="167" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+        <v>160</v>
+      </c>
+      <c r="E5" s="168" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5617,12 +5611,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5633,12 +5627,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5649,12 +5643,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5665,12 +5659,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5681,12 +5675,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5697,12 +5691,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5713,12 +5707,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5729,12 +5723,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5745,12 +5739,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5761,12 +5755,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5777,12 +5771,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5793,12 +5787,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5809,12 +5803,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5825,12 +5819,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5841,12 +5835,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5857,12 +5851,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5873,12 +5867,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5889,12 +5883,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5905,12 +5899,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5921,12 +5915,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5937,12 +5931,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5953,12 +5947,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5969,12 +5963,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -5985,12 +5979,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6001,12 +5995,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6017,12 +6011,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6033,12 +6027,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6049,12 +6043,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6065,12 +6059,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6081,12 +6075,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6097,12 +6091,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6113,12 +6107,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6129,12 +6123,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6145,12 +6139,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6161,12 +6155,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6177,12 +6171,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6193,32 +6187,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6234,14 +6219,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6286,10 +6280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6315,12 +6309,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6375,7 +6369,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="182" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="183"/>
     </row>
@@ -6463,7 +6457,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="176" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J12" s="177"/>
     </row>
@@ -6868,10 +6862,10 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6895,12 +6889,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6913,7 +6907,7 @@
       </c>
       <c r="H1" s="189"/>
       <c r="I1" s="190" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="J1" s="191"/>
       <c r="K1" s="192"/>
@@ -6928,14 +6922,14 @@
         <v>7</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6972,7 +6966,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>109</v>
@@ -7019,13 +7013,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="33">
         <v>1</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7049,21 +7043,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="33">
         <v>2</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
@@ -7078,25 +7072,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="33">
         <v>3</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
@@ -7113,25 +7107,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
@@ -7148,21 +7142,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="33">
         <v>5</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="127"/>
       <c r="G9" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
@@ -7177,25 +7171,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="33">
         <v>6</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
@@ -7212,31 +7206,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="33">
         <v>7</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" s="62">
-        <v>50</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="I11" s="62"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="L11" s="83"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
@@ -7247,25 +7241,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="33">
         <v>8</v>
       </c>
       <c r="D12" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="133" t="s">
+      <c r="F12" s="133" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="133" t="s">
-        <v>198</v>
-      </c>
       <c r="G12" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="62">
         <v>50</v>
@@ -7277,40 +7271,40 @@
       <c r="L12" s="133"/>
       <c r="M12" s="133"/>
       <c r="N12" s="133"/>
-      <c r="O12" s="133" t="s">
-        <v>201</v>
-      </c>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="33">
         <v>9</v>
       </c>
       <c r="D13" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="133" t="s">
-        <v>200</v>
-      </c>
       <c r="F13" s="133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="62">
         <v>50</v>
       </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="L13" s="133"/>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
@@ -7321,20 +7315,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="33">
         <v>10</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="88"/>
       <c r="G14" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="62"/>
@@ -7350,20 +7344,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="33">
         <v>11</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="62"/>
@@ -8244,7 +8238,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" s="66"/>
     </row>
@@ -9183,7 +9177,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9213,13 +9207,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9257,7 +9251,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -9271,15 +9265,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9289,22 +9283,22 @@
         <v>51</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="193" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
+      <c r="G5" s="193" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="194"/>
+      <c r="I5" s="197" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="198"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="33">
@@ -9314,22 +9308,22 @@
         <v>51</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="131" t="s">
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="196" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="193" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="G6" s="193" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="194"/>
+      <c r="I6" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="198"/>
+      <c r="K6" s="199"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9340,11 +9334,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9355,11 +9349,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9370,11 +9364,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9385,11 +9379,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="199"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9400,11 +9394,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9415,11 +9409,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9430,11 +9424,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9445,11 +9439,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="199"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9460,11 +9454,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9475,11 +9469,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="199"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9490,11 +9484,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9505,11 +9499,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="199"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9520,11 +9514,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="199"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9535,11 +9529,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="199"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9550,11 +9544,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9565,11 +9559,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="199"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9580,11 +9574,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="199"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9595,11 +9589,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="199"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9610,11 +9604,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="199"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9625,11 +9619,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="199"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9640,11 +9634,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="199"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9655,11 +9649,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="199"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9670,11 +9664,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="199"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9685,11 +9679,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="199"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9700,11 +9694,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="199"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9715,11 +9709,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9737,11 +9731,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="199"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9759,11 +9753,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="199"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9781,11 +9775,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="199"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9803,11 +9797,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="195"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="199"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9825,11 +9819,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="199"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9847,11 +9841,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="195"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="199"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9869,11 +9863,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="199"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9891,11 +9885,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="195"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="199"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9913,11 +9907,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="195"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="199"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9935,11 +9929,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="199"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9957,11 +9951,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="199"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9979,11 +9973,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="199"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10001,11 +9995,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="199"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10023,11 +10017,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="195"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="199"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10045,11 +10039,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="195"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10067,11 +10061,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="199"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10089,11 +10083,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="195"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="199"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10111,11 +10105,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="199"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10133,11 +10127,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10155,11 +10149,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10177,11 +10171,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="199"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10199,11 +10193,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="195"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="199"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10221,11 +10215,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="195"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="199"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10243,11 +10237,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="195"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="199"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10259,25 +10253,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10292,80 +10341,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10383,8 +10377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10412,15 +10406,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10447,7 +10441,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="50"/>
       <c r="R1" s="35"/>
@@ -10455,13 +10449,13 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10500,7 +10494,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>97</v>
@@ -10550,45 +10544,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
       <c r="F5" s="88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="200" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="201"/>
       <c r="L5" s="201"/>
       <c r="M5" s="202"/>
       <c r="N5" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="89" t="s">
         <v>188</v>
-      </c>
-      <c r="O5" s="89" t="s">
-        <v>189</v>
       </c>
       <c r="P5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="Q5" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R5" s="88" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -10598,25 +10592,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
       <c r="F6" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I6" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" s="200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K6" s="201"/>
       <c r="L6" s="201"/>
@@ -10625,16 +10619,16 @@
         <v>134</v>
       </c>
       <c r="O6" s="126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P6" s="76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
@@ -10644,25 +10638,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
       <c r="F7" s="133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I7" s="132" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J7" s="200" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K7" s="201"/>
       <c r="L7" s="201"/>
@@ -10671,14 +10665,14 @@
         <v>134</v>
       </c>
       <c r="O7" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P7" s="76"/>
       <c r="Q7" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -10688,43 +10682,43 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="132" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J8" s="200" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K8" s="201"/>
       <c r="L8" s="201"/>
       <c r="M8" s="202"/>
       <c r="N8" s="126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O8" s="126" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R8" s="133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
@@ -12737,11 +12731,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
     <mergeCell ref="J77:M77"/>
     <mergeCell ref="J60:M60"/>
     <mergeCell ref="J87:M87"/>
@@ -12758,79 +12820,11 @@
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12859,7 +12853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
@@ -12876,10 +12870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12905,12 +12899,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13096,7 +13090,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13167,7 +13161,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13205,10 +13199,10 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13221,10 +13215,10 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13990,10 +13984,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14021,8 +14015,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2256,18 +2256,6 @@
     <t>@SQL0003</t>
   </si>
   <si>
-    <t>Load màn hình Báo cáo để xem trước khi in</t>
-  </si>
-  <si>
-    <t>Click BttnView</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0004 để load báo cáo khách hàng theo nhân viên xem trước khi in</t>
-  </si>
-  <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
     <t>Đóng</t>
   </si>
   <si>
@@ -2281,25 +2269,10 @@
 Màn hình in báo cáo Danh sách khách hàng ngưng sử dụng </t>
   </si>
   <si>
-    <t>Login -&gt; ASOFT-CRM 
--&gt;Menu[Báo cáo] -&gt; menuItem[Báo cáo Biểu đồ]
--&gt; Click vào Link Báo cáo KH ngưng sử dụng
--&gt; Pop[Khách hàng ngưng sử dụng _ CRMF3020]</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Truyền tham số @DivisionID để gọi tab mới load báo cáo xem trước khi In</t>
-  </si>
-  <si>
-    <t>Click vào Button In</t>
-  </si>
-  <si>
     <t>Click vào Link Báo cáo khách hàng ngưng sử dụng trong danh mục báo cáo Thống kế</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0001, @SQL0002 đổ nguồn cho Dropdownchecklist</t>
   </si>
   <si>
     <t>Select AccountID, AccountName
@@ -2308,9 +2281,6 @@
 Order By AccountID</t>
   </si>
   <si>
-    <t>Click vào BttnPrint thực thi @SQL0004 để mở tab mới Load màn hình view trước khi In</t>
-  </si>
-  <si>
     <t>Khách hàng ngưng sử dụng</t>
   </si>
   <si>
@@ -2332,43 +2302,46 @@
     <t>CustomizeIndex</t>
   </si>
   <si>
-    <t xml:space="preserve">EXEC CRMP30201(
- @DivisionID       VARCHAR(50),  
-  @DivisionIDList    NVARCHAR(2000), 
-  @FromDate         DATETIME,
-  @ToDate           DATETIME,
-  @IsDate           TINYINT,
-@Period Nvarchar(Max),
-@FromAccountID       Varchar(50),
-  @ToAccountID         Varchar(50,
-  @UserID  VARCHAR(50))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate
-@Period  
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate
-@@Period 
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
-  </si>
-  <si>
-    <t>NV2</t>
-  </si>
-  <si>
-    <t>NV1</t>
-  </si>
-  <si>
     <t>Click vào BttnClose thực thi đóng màn hình CRMF3020 trở về màn hình CRMF3000</t>
   </si>
   <si>
-    <t>Thực thi @SQL0003  phụ thuộc vào DivisionID của Đơn vị</t>
+    <t>Login -&gt; ASOFT-CRM 
+-&gt;Menu[Báo cáo]
+ -&gt; Page[Báo cáo Biểu đồ]
+-&gt; Click vào Link Báo cáo KH ngưng sử dụng
+-&gt; Pop[Khách hàng ngưng sử dụng _ CRMF3020]</t>
+  </si>
+  <si>
+    <t>GetDate()</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox Khách hàng phụ thuộc
+nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
+  </si>
+  <si>
+    <t>ID SQL</t>
+  </si>
+  <si>
+    <t>Click vào Button In thực hiện truyền các tham số trên màn hình vào Store CRMP30201 để mở tab mới Load màn hình view trước khi In
+Tham khảo thêm Store CRMP30201</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
+  </si>
+  <si>
+    <t>cho phép In báo cáo khách hàng ngưng sử dụng</t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
   </si>
 </sst>
 </file>
@@ -2894,7 +2867,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3242,9 +3215,30 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3290,23 +3284,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3347,9 +3326,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3411,6 +3387,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3419,18 +3407,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3453,6 +3429,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3536,19 +3518,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3568,8 +3550,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2352675" y="1323975"/>
-          <a:ext cx="4371975" cy="2619375"/>
+          <a:off x="2333625" y="1447800"/>
+          <a:ext cx="4657725" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4380,65 +4362,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="144"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="146" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="145" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145" t="s">
+      <c r="H1" s="152"/>
+      <c r="I1" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="145"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="145" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="141" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="142"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4449,56 +4431,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4509,384 +4491,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="146"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="157"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="142"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="158"/>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158"/>
-      <c r="AX28" s="158"/>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="158"/>
-      <c r="BB28" s="158"/>
-      <c r="BC28" s="158"/>
-      <c r="BD28" s="158"/>
-      <c r="BE28" s="158"/>
-      <c r="BF28" s="158"/>
-      <c r="BG28" s="158"/>
-      <c r="BH28" s="158"/>
-      <c r="BI28" s="158"/>
-      <c r="BJ28" s="158"/>
-      <c r="BK28" s="158"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="158"/>
-      <c r="BN28" s="158"/>
-      <c r="BO28" s="158"/>
-      <c r="BP28" s="158"/>
-      <c r="BQ28" s="158"/>
-      <c r="BR28" s="158"/>
-      <c r="BS28" s="158"/>
-      <c r="BT28" s="158"/>
-      <c r="BU28" s="158"/>
-      <c r="BV28" s="158"/>
-      <c r="BW28" s="158"/>
-      <c r="BX28" s="158"/>
-      <c r="BY28" s="158"/>
-      <c r="BZ28" s="158"/>
-      <c r="CA28" s="158"/>
-      <c r="CB28" s="158"/>
-      <c r="CC28" s="158"/>
-      <c r="CD28" s="158"/>
-      <c r="CE28" s="158"/>
-      <c r="CF28" s="158"/>
-      <c r="CG28" s="158"/>
-      <c r="CH28" s="158"/>
-      <c r="CI28" s="158"/>
-      <c r="CJ28" s="158"/>
-      <c r="CK28" s="158"/>
-      <c r="CL28" s="158"/>
-      <c r="CM28" s="158"/>
-      <c r="CN28" s="158"/>
-      <c r="CO28" s="158"/>
-      <c r="CP28" s="158"/>
-      <c r="CQ28" s="158"/>
-      <c r="CR28" s="158"/>
-      <c r="CS28" s="158"/>
-      <c r="CT28" s="158"/>
-      <c r="CU28" s="158"/>
-      <c r="CV28" s="158"/>
-      <c r="CW28" s="158"/>
-      <c r="CX28" s="158"/>
-      <c r="CY28" s="158"/>
-      <c r="CZ28" s="158"/>
-      <c r="DA28" s="158"/>
-      <c r="DB28" s="158"/>
-      <c r="DC28" s="158"/>
-      <c r="DD28" s="158"/>
-      <c r="DE28" s="158"/>
-      <c r="DF28" s="158"/>
-      <c r="DG28" s="158"/>
-      <c r="DH28" s="158"/>
-      <c r="DI28" s="158"/>
-      <c r="DJ28" s="158"/>
-      <c r="DK28" s="158"/>
-      <c r="DL28" s="158"/>
-      <c r="DM28" s="158"/>
-      <c r="DN28" s="158"/>
-      <c r="DO28" s="158"/>
-      <c r="DP28" s="158"/>
-      <c r="DQ28" s="158"/>
-      <c r="DR28" s="158"/>
-      <c r="DS28" s="158"/>
-      <c r="DT28" s="158"/>
-      <c r="DU28" s="158"/>
-      <c r="DV28" s="158"/>
-      <c r="DW28" s="158"/>
-      <c r="DX28" s="158"/>
-      <c r="DY28" s="158"/>
-      <c r="DZ28" s="158"/>
-      <c r="EA28" s="158"/>
-      <c r="EB28" s="158"/>
-      <c r="EC28" s="158"/>
-      <c r="ED28" s="158"/>
-      <c r="EE28" s="158"/>
-      <c r="EF28" s="158"/>
-      <c r="EG28" s="158"/>
-      <c r="EH28" s="158"/>
-      <c r="EI28" s="158"/>
-      <c r="EJ28" s="158"/>
-      <c r="EK28" s="158"/>
-      <c r="EL28" s="158"/>
-      <c r="EM28" s="158"/>
-      <c r="EN28" s="158"/>
-      <c r="EO28" s="158"/>
-      <c r="EP28" s="158"/>
-      <c r="EQ28" s="158"/>
-      <c r="ER28" s="158"/>
-      <c r="ES28" s="158"/>
-      <c r="ET28" s="158"/>
-      <c r="EU28" s="158"/>
-      <c r="EV28" s="158"/>
-      <c r="EW28" s="158"/>
-      <c r="EX28" s="158"/>
-      <c r="EY28" s="158"/>
-      <c r="EZ28" s="158"/>
-      <c r="FA28" s="158"/>
-      <c r="FB28" s="158"/>
-      <c r="FC28" s="158"/>
-      <c r="FD28" s="158"/>
-      <c r="FE28" s="158"/>
-      <c r="FF28" s="158"/>
-      <c r="FG28" s="158"/>
-      <c r="FH28" s="158"/>
-      <c r="FI28" s="158"/>
-      <c r="FJ28" s="158"/>
-      <c r="FK28" s="158"/>
-      <c r="FL28" s="158"/>
-      <c r="FM28" s="158"/>
-      <c r="FN28" s="158"/>
-      <c r="FO28" s="158"/>
-      <c r="FP28" s="158"/>
-      <c r="FQ28" s="158"/>
-      <c r="FR28" s="158"/>
-      <c r="FS28" s="158"/>
-      <c r="FT28" s="158"/>
-      <c r="FU28" s="158"/>
-      <c r="FV28" s="158"/>
-      <c r="FW28" s="158"/>
-      <c r="FX28" s="158"/>
-      <c r="FY28" s="158"/>
-      <c r="FZ28" s="158"/>
-      <c r="GA28" s="158"/>
-      <c r="GB28" s="158"/>
-      <c r="GC28" s="158"/>
-      <c r="GD28" s="158"/>
-      <c r="GE28" s="158"/>
-      <c r="GF28" s="158"/>
-      <c r="GG28" s="158"/>
-      <c r="GH28" s="158"/>
-      <c r="GI28" s="158"/>
-      <c r="GJ28" s="158"/>
-      <c r="GK28" s="158"/>
-      <c r="GL28" s="158"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="141"/>
+      <c r="AC28" s="141"/>
+      <c r="AD28" s="141"/>
+      <c r="AE28" s="141"/>
+      <c r="AF28" s="141"/>
+      <c r="AG28" s="141"/>
+      <c r="AH28" s="141"/>
+      <c r="AI28" s="141"/>
+      <c r="AJ28" s="141"/>
+      <c r="AK28" s="141"/>
+      <c r="AL28" s="141"/>
+      <c r="AM28" s="141"/>
+      <c r="AN28" s="141"/>
+      <c r="AO28" s="141"/>
+      <c r="AP28" s="141"/>
+      <c r="AQ28" s="141"/>
+      <c r="AR28" s="141"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="141"/>
+      <c r="AU28" s="141"/>
+      <c r="AV28" s="141"/>
+      <c r="AW28" s="141"/>
+      <c r="AX28" s="141"/>
+      <c r="AY28" s="141"/>
+      <c r="AZ28" s="141"/>
+      <c r="BA28" s="141"/>
+      <c r="BB28" s="141"/>
+      <c r="BC28" s="141"/>
+      <c r="BD28" s="141"/>
+      <c r="BE28" s="141"/>
+      <c r="BF28" s="141"/>
+      <c r="BG28" s="141"/>
+      <c r="BH28" s="141"/>
+      <c r="BI28" s="141"/>
+      <c r="BJ28" s="141"/>
+      <c r="BK28" s="141"/>
+      <c r="BL28" s="141"/>
+      <c r="BM28" s="141"/>
+      <c r="BN28" s="141"/>
+      <c r="BO28" s="141"/>
+      <c r="BP28" s="141"/>
+      <c r="BQ28" s="141"/>
+      <c r="BR28" s="141"/>
+      <c r="BS28" s="141"/>
+      <c r="BT28" s="141"/>
+      <c r="BU28" s="141"/>
+      <c r="BV28" s="141"/>
+      <c r="BW28" s="141"/>
+      <c r="BX28" s="141"/>
+      <c r="BY28" s="141"/>
+      <c r="BZ28" s="141"/>
+      <c r="CA28" s="141"/>
+      <c r="CB28" s="141"/>
+      <c r="CC28" s="141"/>
+      <c r="CD28" s="141"/>
+      <c r="CE28" s="141"/>
+      <c r="CF28" s="141"/>
+      <c r="CG28" s="141"/>
+      <c r="CH28" s="141"/>
+      <c r="CI28" s="141"/>
+      <c r="CJ28" s="141"/>
+      <c r="CK28" s="141"/>
+      <c r="CL28" s="141"/>
+      <c r="CM28" s="141"/>
+      <c r="CN28" s="141"/>
+      <c r="CO28" s="141"/>
+      <c r="CP28" s="141"/>
+      <c r="CQ28" s="141"/>
+      <c r="CR28" s="141"/>
+      <c r="CS28" s="141"/>
+      <c r="CT28" s="141"/>
+      <c r="CU28" s="141"/>
+      <c r="CV28" s="141"/>
+      <c r="CW28" s="141"/>
+      <c r="CX28" s="141"/>
+      <c r="CY28" s="141"/>
+      <c r="CZ28" s="141"/>
+      <c r="DA28" s="141"/>
+      <c r="DB28" s="141"/>
+      <c r="DC28" s="141"/>
+      <c r="DD28" s="141"/>
+      <c r="DE28" s="141"/>
+      <c r="DF28" s="141"/>
+      <c r="DG28" s="141"/>
+      <c r="DH28" s="141"/>
+      <c r="DI28" s="141"/>
+      <c r="DJ28" s="141"/>
+      <c r="DK28" s="141"/>
+      <c r="DL28" s="141"/>
+      <c r="DM28" s="141"/>
+      <c r="DN28" s="141"/>
+      <c r="DO28" s="141"/>
+      <c r="DP28" s="141"/>
+      <c r="DQ28" s="141"/>
+      <c r="DR28" s="141"/>
+      <c r="DS28" s="141"/>
+      <c r="DT28" s="141"/>
+      <c r="DU28" s="141"/>
+      <c r="DV28" s="141"/>
+      <c r="DW28" s="141"/>
+      <c r="DX28" s="141"/>
+      <c r="DY28" s="141"/>
+      <c r="DZ28" s="141"/>
+      <c r="EA28" s="141"/>
+      <c r="EB28" s="141"/>
+      <c r="EC28" s="141"/>
+      <c r="ED28" s="141"/>
+      <c r="EE28" s="141"/>
+      <c r="EF28" s="141"/>
+      <c r="EG28" s="141"/>
+      <c r="EH28" s="141"/>
+      <c r="EI28" s="141"/>
+      <c r="EJ28" s="141"/>
+      <c r="EK28" s="141"/>
+      <c r="EL28" s="141"/>
+      <c r="EM28" s="141"/>
+      <c r="EN28" s="141"/>
+      <c r="EO28" s="141"/>
+      <c r="EP28" s="141"/>
+      <c r="EQ28" s="141"/>
+      <c r="ER28" s="141"/>
+      <c r="ES28" s="141"/>
+      <c r="ET28" s="141"/>
+      <c r="EU28" s="141"/>
+      <c r="EV28" s="141"/>
+      <c r="EW28" s="141"/>
+      <c r="EX28" s="141"/>
+      <c r="EY28" s="141"/>
+      <c r="EZ28" s="141"/>
+      <c r="FA28" s="141"/>
+      <c r="FB28" s="141"/>
+      <c r="FC28" s="141"/>
+      <c r="FD28" s="141"/>
+      <c r="FE28" s="141"/>
+      <c r="FF28" s="141"/>
+      <c r="FG28" s="141"/>
+      <c r="FH28" s="141"/>
+      <c r="FI28" s="141"/>
+      <c r="FJ28" s="141"/>
+      <c r="FK28" s="141"/>
+      <c r="FL28" s="141"/>
+      <c r="FM28" s="141"/>
+      <c r="FN28" s="141"/>
+      <c r="FO28" s="141"/>
+      <c r="FP28" s="141"/>
+      <c r="FQ28" s="141"/>
+      <c r="FR28" s="141"/>
+      <c r="FS28" s="141"/>
+      <c r="FT28" s="141"/>
+      <c r="FU28" s="141"/>
+      <c r="FV28" s="141"/>
+      <c r="FW28" s="141"/>
+      <c r="FX28" s="141"/>
+      <c r="FY28" s="141"/>
+      <c r="FZ28" s="141"/>
+      <c r="GA28" s="141"/>
+      <c r="GB28" s="141"/>
+      <c r="GC28" s="141"/>
+      <c r="GD28" s="141"/>
+      <c r="GE28" s="141"/>
+      <c r="GF28" s="141"/>
+      <c r="GG28" s="141"/>
+      <c r="GH28" s="141"/>
+      <c r="GI28" s="141"/>
+      <c r="GJ28" s="141"/>
+      <c r="GK28" s="141"/>
+      <c r="GL28" s="141"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="157"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="142"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="142"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="160"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4897,16 +4879,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="160"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4918,28 +4900,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4953,6 +4913,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4979,14 +4961,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5179,11 +5161,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="207" t="s">
+      <c r="E27" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="209"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="210"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5389,7 +5371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5507,10 +5489,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5521,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5537,8 +5519,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5531,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5577,14 +5559,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5599,14 +5581,14 @@
       <c r="D5" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="E5" s="171" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5617,12 +5599,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5633,12 +5615,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5649,12 +5631,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5665,12 +5647,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5681,12 +5663,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5697,12 +5679,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="165"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5713,12 +5695,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5729,12 +5711,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5745,12 +5727,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5761,12 +5743,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5777,12 +5759,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5793,12 +5775,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5809,12 +5791,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5825,12 +5807,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5841,12 +5823,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5857,12 +5839,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5873,12 +5855,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5889,12 +5871,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5905,12 +5887,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5921,12 +5903,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5937,12 +5919,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5953,12 +5935,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5969,12 +5951,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -5985,12 +5967,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6001,12 +5983,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6017,12 +5999,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6033,12 +6015,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6049,12 +6031,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6065,12 +6047,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6081,12 +6063,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6097,12 +6079,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6113,12 +6095,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6129,12 +6111,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6145,12 +6127,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6161,12 +6143,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6177,12 +6159,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6193,32 +6175,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6234,14 +6207,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6267,7 +6249,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6286,10 +6268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6319,8 +6301,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6350,20 +6332,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="175" t="s">
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6374,10 +6356,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="185"/>
+      <c r="J5" s="186"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6388,8 +6370,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6400,8 +6382,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="188"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6412,8 +6394,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6424,8 +6406,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="188"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6436,8 +6418,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6448,10 +6430,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="175" t="s">
+      <c r="I11" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6462,10 +6444,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="178" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="179"/>
+      <c r="I12" s="179" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="180"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6476,8 +6458,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6488,8 +6470,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6500,8 +6482,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6512,8 +6494,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6524,8 +6506,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6536,8 +6518,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="182"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6548,8 +6530,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6560,8 +6542,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6572,8 +6554,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6584,8 +6566,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6596,8 +6578,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6608,8 +6590,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6620,8 +6602,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6632,8 +6614,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6644,8 +6626,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="182"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6656,8 +6638,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6668,8 +6650,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6680,8 +6662,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6692,8 +6674,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6704,8 +6686,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6716,8 +6698,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6728,8 +6710,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6740,8 +6722,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="182"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6752,8 +6734,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6764,8 +6746,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="182"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6776,8 +6758,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6788,8 +6770,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="182"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6800,8 +6782,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="181"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="182"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6812,8 +6794,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6824,8 +6806,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6836,8 +6818,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6868,10 +6850,10 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C15"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6880,7 +6862,7 @@
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -6896,13 +6878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6910,15 +6892,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="191"/>
-      <c r="J1" s="192" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="193"/>
-      <c r="L1" s="194"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="193" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="194"/>
+      <c r="L1" s="195"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6934,11 +6916,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6946,16 +6928,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="190" t="s">
+      <c r="H2" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="191"/>
-      <c r="J2" s="192" t="str">
+      <c r="I2" s="192"/>
+      <c r="J2" s="193" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng ngưng sử dụng</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="195"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6978,7 +6960,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7020,7 +7002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -7033,7 +7015,7 @@
       <c r="D5" s="33">
         <v>1</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="139" t="s">
         <v>194</v>
       </c>
       <c r="F5" s="83" t="str">
@@ -7066,7 +7048,9 @@
       <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="59" t="s">
+        <v>163</v>
+      </c>
       <c r="F6" s="88" t="s">
         <v>173</v>
       </c>
@@ -7082,7 +7066,9 @@
       <c r="L6" s="40"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="O6" s="69">
+        <v>1</v>
+      </c>
       <c r="P6" s="88"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7120,7 +7106,9 @@
       </c>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="O7" s="88" t="s">
+        <v>219</v>
+      </c>
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7158,7 +7146,9 @@
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
+      <c r="O8" s="69" t="s">
+        <v>219</v>
+      </c>
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7174,7 +7164,9 @@
       <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="59" t="s">
+        <v>165</v>
+      </c>
       <c r="F9" s="127" t="s">
         <v>173</v>
       </c>
@@ -7190,7 +7182,9 @@
       <c r="L9" s="40"/>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
+      <c r="O9" s="88">
+        <v>0</v>
+      </c>
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7219,7 +7213,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
@@ -7254,20 +7248,26 @@
         <v>175</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="62"/>
+        <v>177</v>
+      </c>
+      <c r="J11" s="62">
+        <v>50</v>
+      </c>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
       <c r="M11" s="83"/>
       <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="88"/>
+      <c r="O11" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="139" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="33">
@@ -7395,10 +7395,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="40" t="s">
@@ -9237,7 +9237,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9263,7 +9263,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9299,7 +9299,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9337,7 +9337,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -9351,15 +9351,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167" t="s">
+      <c r="H4" s="169"/>
+      <c r="I4" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9373,43 +9373,33 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="198" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="199"/>
-      <c r="I5" s="195" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="196"/>
-      <c r="K5" s="197"/>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="42" customHeight="1">
+      <c r="G5" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="197"/>
+      <c r="I5" s="200" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="201"/>
+      <c r="K5" s="202"/>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33">
-        <v>51</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="131" t="s">
-        <v>134</v>
-      </c>
+      <c r="E6" s="131"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="198" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="199"/>
-      <c r="I6" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="196"/>
-      <c r="K6" s="197"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9420,11 +9410,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="197"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9435,11 +9425,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9450,11 +9440,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9465,11 +9455,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9480,11 +9470,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9495,11 +9485,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9510,11 +9500,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9525,11 +9515,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="197"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9540,11 +9530,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9555,11 +9545,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="197"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9570,11 +9560,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9585,11 +9575,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="197"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9600,11 +9590,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9615,11 +9605,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="197"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9630,11 +9620,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="197"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9645,11 +9635,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="197"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="202"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9660,11 +9650,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="197"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9675,11 +9665,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="197"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="202"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9690,11 +9680,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="197"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9705,11 +9695,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="197"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="202"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9720,11 +9710,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="202"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9735,11 +9725,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="202"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9750,11 +9740,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="202"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9765,11 +9755,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="202"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9780,11 +9770,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="202"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9795,11 +9785,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="202"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9817,11 +9807,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="202"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9839,11 +9829,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="197"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="202"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9861,11 +9851,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="197"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="202"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9883,11 +9873,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="197"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="202"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9905,11 +9895,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="197"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="201"/>
+      <c r="K37" s="202"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9927,11 +9917,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="197"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="202"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9949,11 +9939,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="197"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="202"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9971,11 +9961,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="197"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="202"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9993,11 +9983,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="197"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="202"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10015,11 +10005,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="197"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="202"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10037,11 +10027,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="197"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="202"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10059,11 +10049,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="197"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="202"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10081,11 +10071,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="197"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="201"/>
+      <c r="K45" s="202"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10103,11 +10093,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="197"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="201"/>
+      <c r="K46" s="202"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10125,11 +10115,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="197"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="202"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10147,11 +10137,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="196"/>
-      <c r="K48" s="197"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="202"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10169,11 +10159,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="197"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="202"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10191,11 +10181,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="197"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="202"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10213,11 +10203,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="197"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="202"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10235,11 +10225,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="195"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="197"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="202"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10257,11 +10247,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="197"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201"/>
+      <c r="K53" s="202"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10279,11 +10269,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="195"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="202"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10301,11 +10291,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="197"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="202"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10323,11 +10313,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="196"/>
-      <c r="K56" s="197"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="200"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="202"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10339,25 +10329,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10372,80 +10417,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10464,7 +10454,7 @@
   <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10493,24 +10483,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="205" t="str">
+      <c r="J1" s="206" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="205"/>
+      <c r="K1" s="206"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10537,22 +10527,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="205" t="str">
+      <c r="J2" s="206" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="205"/>
+      <c r="K2" s="206"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10586,7 +10576,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10609,12 +10599,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="175" t="s">
+      <c r="K4" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="176"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="177"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10653,17 +10643,17 @@
         <v>183</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="J5" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="202" t="s">
+      <c r="K5" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="205"/>
       <c r="O5" s="126" t="s">
         <v>187</v>
       </c>
@@ -10677,7 +10667,7 @@
         <v>191</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10702,17 +10692,17 @@
         <v>183</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="J6" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="202" t="s">
+      <c r="K6" s="203" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="205"/>
       <c r="O6" s="126" t="s">
         <v>134</v>
       </c>
@@ -10726,12 +10716,12 @@
         <v>191</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="50.25" customHeight="1">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="78.75">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -10756,12 +10746,12 @@
       <c r="J7" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="202" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
+      <c r="K7" s="203" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="205"/>
       <c r="O7" s="126" t="s">
         <v>134</v>
       </c>
@@ -10773,57 +10763,33 @@
         <v>191</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="176.25" customHeight="1">
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="33">
-        <v>51</v>
-      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="202" t="s">
-        <v>226</v>
-      </c>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="126" t="s">
-        <v>227</v>
-      </c>
-      <c r="P8" s="126" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="R8" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="S8" s="133" t="s">
-        <v>205</v>
-      </c>
+      <c r="G8" s="133"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="133"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -10840,10 +10806,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="204"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="205"/>
       <c r="O9" s="89"/>
       <c r="P9" s="89"/>
       <c r="Q9" s="76"/>
@@ -10865,10 +10831,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="205"/>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="76"/>
@@ -10890,10 +10856,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="204"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="205"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -10915,10 +10881,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="204"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="205"/>
       <c r="O12" s="85"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="76"/>
@@ -10940,10 +10906,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="204"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="205"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -10965,10 +10931,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="204"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="205"/>
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
       <c r="Q14" s="76"/>
@@ -10990,10 +10956,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="204"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="205"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -11015,10 +10981,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="204"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="205"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -11040,10 +11006,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="204"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="205"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -11065,10 +11031,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="204"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="205"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -11090,10 +11056,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="204"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="205"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -11115,10 +11081,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="204"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="205"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -11140,10 +11106,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="204"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="205"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -11165,10 +11131,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="204"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="205"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -11190,10 +11156,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="204"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="205"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -11215,10 +11181,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="204"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="205"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -11240,10 +11206,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="204"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="205"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -11265,10 +11231,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="204"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="205"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -11290,10 +11256,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="205"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -11315,10 +11281,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="204"/>
+      <c r="K28" s="203"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="205"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -11340,10 +11306,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="203"/>
-      <c r="N29" s="204"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="205"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -11365,10 +11331,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="204"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="205"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -11390,10 +11356,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="204"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="205"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -11415,10 +11381,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="204"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="205"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -11440,10 +11406,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="204"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="204"/>
+      <c r="M33" s="204"/>
+      <c r="N33" s="205"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -11465,10 +11431,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="82"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="204"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="205"/>
       <c r="O34" s="85"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="76"/>
@@ -11490,10 +11456,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="204"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="205"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -11515,10 +11481,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="203"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="204"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="205"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -11540,10 +11506,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="204"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="205"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -11565,10 +11531,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="203"/>
-      <c r="M38" s="203"/>
-      <c r="N38" s="204"/>
+      <c r="K38" s="203"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="205"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -11590,10 +11556,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="203"/>
-      <c r="N39" s="204"/>
+      <c r="K39" s="203"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="205"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -11615,10 +11581,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="203"/>
-      <c r="M40" s="203"/>
-      <c r="N40" s="204"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="204"/>
+      <c r="N40" s="205"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -11640,10 +11606,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="203"/>
-      <c r="M41" s="203"/>
-      <c r="N41" s="204"/>
+      <c r="K41" s="203"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="205"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -11665,10 +11631,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="203"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="204"/>
+      <c r="K42" s="203"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="204"/>
+      <c r="N42" s="205"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -11690,10 +11656,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="202"/>
-      <c r="L43" s="203"/>
-      <c r="M43" s="203"/>
-      <c r="N43" s="204"/>
+      <c r="K43" s="203"/>
+      <c r="L43" s="204"/>
+      <c r="M43" s="204"/>
+      <c r="N43" s="205"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -11715,10 +11681,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="203"/>
-      <c r="M44" s="203"/>
-      <c r="N44" s="204"/>
+      <c r="K44" s="203"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="205"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -11740,10 +11706,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="202"/>
-      <c r="L45" s="203"/>
-      <c r="M45" s="203"/>
-      <c r="N45" s="204"/>
+      <c r="K45" s="203"/>
+      <c r="L45" s="204"/>
+      <c r="M45" s="204"/>
+      <c r="N45" s="205"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -11765,10 +11731,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="203"/>
-      <c r="M46" s="203"/>
-      <c r="N46" s="204"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="205"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -11790,10 +11756,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="204"/>
+      <c r="K47" s="203"/>
+      <c r="L47" s="204"/>
+      <c r="M47" s="204"/>
+      <c r="N47" s="205"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -11815,10 +11781,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="203"/>
-      <c r="M48" s="203"/>
-      <c r="N48" s="204"/>
+      <c r="K48" s="203"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="205"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11840,10 +11806,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="202"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="204"/>
+      <c r="K49" s="203"/>
+      <c r="L49" s="204"/>
+      <c r="M49" s="204"/>
+      <c r="N49" s="205"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11865,10 +11831,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="202"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="204"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="205"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11890,10 +11856,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="202"/>
-      <c r="L51" s="203"/>
-      <c r="M51" s="203"/>
-      <c r="N51" s="204"/>
+      <c r="K51" s="203"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="205"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11915,10 +11881,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
-      <c r="N52" s="204"/>
+      <c r="K52" s="203"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="205"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11940,10 +11906,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="202"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="203"/>
-      <c r="N53" s="204"/>
+      <c r="K53" s="203"/>
+      <c r="L53" s="204"/>
+      <c r="M53" s="204"/>
+      <c r="N53" s="205"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11965,10 +11931,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="202"/>
-      <c r="L54" s="203"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="204"/>
+      <c r="K54" s="203"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="204"/>
+      <c r="N54" s="205"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11990,10 +11956,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="202"/>
-      <c r="L55" s="203"/>
-      <c r="M55" s="203"/>
-      <c r="N55" s="204"/>
+      <c r="K55" s="203"/>
+      <c r="L55" s="204"/>
+      <c r="M55" s="204"/>
+      <c r="N55" s="205"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -12015,10 +11981,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="202"/>
-      <c r="L56" s="203"/>
-      <c r="M56" s="203"/>
-      <c r="N56" s="204"/>
+      <c r="K56" s="203"/>
+      <c r="L56" s="204"/>
+      <c r="M56" s="204"/>
+      <c r="N56" s="205"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -12040,10 +12006,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="202"/>
-      <c r="L57" s="203"/>
-      <c r="M57" s="203"/>
-      <c r="N57" s="204"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="204"/>
+      <c r="M57" s="204"/>
+      <c r="N57" s="205"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -12065,10 +12031,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="202"/>
-      <c r="L58" s="203"/>
-      <c r="M58" s="203"/>
-      <c r="N58" s="204"/>
+      <c r="K58" s="203"/>
+      <c r="L58" s="204"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="205"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -12090,10 +12056,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="202"/>
-      <c r="L59" s="203"/>
-      <c r="M59" s="203"/>
-      <c r="N59" s="204"/>
+      <c r="K59" s="203"/>
+      <c r="L59" s="204"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="205"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -12115,10 +12081,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="202"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="203"/>
-      <c r="N60" s="204"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="204"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="205"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -12140,10 +12106,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="202"/>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203"/>
-      <c r="N61" s="204"/>
+      <c r="K61" s="203"/>
+      <c r="L61" s="204"/>
+      <c r="M61" s="204"/>
+      <c r="N61" s="205"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -12165,10 +12131,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="202"/>
-      <c r="L62" s="203"/>
-      <c r="M62" s="203"/>
-      <c r="N62" s="204"/>
+      <c r="K62" s="203"/>
+      <c r="L62" s="204"/>
+      <c r="M62" s="204"/>
+      <c r="N62" s="205"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
       <c r="Q62" s="76"/>
@@ -12190,10 +12156,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="202"/>
-      <c r="L63" s="203"/>
-      <c r="M63" s="203"/>
-      <c r="N63" s="204"/>
+      <c r="K63" s="203"/>
+      <c r="L63" s="204"/>
+      <c r="M63" s="204"/>
+      <c r="N63" s="205"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -12215,10 +12181,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="202"/>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203"/>
-      <c r="N64" s="204"/>
+      <c r="K64" s="203"/>
+      <c r="L64" s="204"/>
+      <c r="M64" s="204"/>
+      <c r="N64" s="205"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -12238,10 +12204,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="202"/>
-      <c r="L65" s="203"/>
-      <c r="M65" s="203"/>
-      <c r="N65" s="204"/>
+      <c r="K65" s="203"/>
+      <c r="L65" s="204"/>
+      <c r="M65" s="204"/>
+      <c r="N65" s="205"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -12261,10 +12227,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="202"/>
-      <c r="L66" s="203"/>
-      <c r="M66" s="203"/>
-      <c r="N66" s="204"/>
+      <c r="K66" s="203"/>
+      <c r="L66" s="204"/>
+      <c r="M66" s="204"/>
+      <c r="N66" s="205"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -12284,10 +12250,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="202"/>
-      <c r="L67" s="203"/>
-      <c r="M67" s="203"/>
-      <c r="N67" s="204"/>
+      <c r="K67" s="203"/>
+      <c r="L67" s="204"/>
+      <c r="M67" s="204"/>
+      <c r="N67" s="205"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -12307,10 +12273,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="202"/>
-      <c r="L68" s="203"/>
-      <c r="M68" s="203"/>
-      <c r="N68" s="204"/>
+      <c r="K68" s="203"/>
+      <c r="L68" s="204"/>
+      <c r="M68" s="204"/>
+      <c r="N68" s="205"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -12330,10 +12296,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="202"/>
-      <c r="L69" s="203"/>
-      <c r="M69" s="203"/>
-      <c r="N69" s="204"/>
+      <c r="K69" s="203"/>
+      <c r="L69" s="204"/>
+      <c r="M69" s="204"/>
+      <c r="N69" s="205"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -12353,10 +12319,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="203"/>
-      <c r="M70" s="203"/>
-      <c r="N70" s="204"/>
+      <c r="K70" s="203"/>
+      <c r="L70" s="204"/>
+      <c r="M70" s="204"/>
+      <c r="N70" s="205"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -12376,10 +12342,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="203"/>
-      <c r="M71" s="203"/>
-      <c r="N71" s="204"/>
+      <c r="K71" s="203"/>
+      <c r="L71" s="204"/>
+      <c r="M71" s="204"/>
+      <c r="N71" s="205"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -12399,10 +12365,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="202"/>
-      <c r="L72" s="203"/>
-      <c r="M72" s="203"/>
-      <c r="N72" s="204"/>
+      <c r="K72" s="203"/>
+      <c r="L72" s="204"/>
+      <c r="M72" s="204"/>
+      <c r="N72" s="205"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -12422,10 +12388,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="202"/>
-      <c r="L73" s="203"/>
-      <c r="M73" s="203"/>
-      <c r="N73" s="204"/>
+      <c r="K73" s="203"/>
+      <c r="L73" s="204"/>
+      <c r="M73" s="204"/>
+      <c r="N73" s="205"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -12445,10 +12411,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="202"/>
-      <c r="L74" s="203"/>
-      <c r="M74" s="203"/>
-      <c r="N74" s="204"/>
+      <c r="K74" s="203"/>
+      <c r="L74" s="204"/>
+      <c r="M74" s="204"/>
+      <c r="N74" s="205"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -12468,10 +12434,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="202"/>
-      <c r="L75" s="203"/>
-      <c r="M75" s="203"/>
-      <c r="N75" s="204"/>
+      <c r="K75" s="203"/>
+      <c r="L75" s="204"/>
+      <c r="M75" s="204"/>
+      <c r="N75" s="205"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -12491,10 +12457,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="203"/>
-      <c r="M76" s="203"/>
-      <c r="N76" s="204"/>
+      <c r="K76" s="203"/>
+      <c r="L76" s="204"/>
+      <c r="M76" s="204"/>
+      <c r="N76" s="205"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -12514,10 +12480,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="203"/>
-      <c r="M77" s="203"/>
-      <c r="N77" s="204"/>
+      <c r="K77" s="203"/>
+      <c r="L77" s="204"/>
+      <c r="M77" s="204"/>
+      <c r="N77" s="205"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -12537,10 +12503,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="203"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="204"/>
+      <c r="K78" s="203"/>
+      <c r="L78" s="204"/>
+      <c r="M78" s="204"/>
+      <c r="N78" s="205"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -12560,10 +12526,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="203"/>
-      <c r="M79" s="203"/>
-      <c r="N79" s="204"/>
+      <c r="K79" s="203"/>
+      <c r="L79" s="204"/>
+      <c r="M79" s="204"/>
+      <c r="N79" s="205"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -12583,10 +12549,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="202"/>
-      <c r="L80" s="203"/>
-      <c r="M80" s="203"/>
-      <c r="N80" s="204"/>
+      <c r="K80" s="203"/>
+      <c r="L80" s="204"/>
+      <c r="M80" s="204"/>
+      <c r="N80" s="205"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -12606,10 +12572,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="202"/>
-      <c r="L81" s="203"/>
-      <c r="M81" s="203"/>
-      <c r="N81" s="204"/>
+      <c r="K81" s="203"/>
+      <c r="L81" s="204"/>
+      <c r="M81" s="204"/>
+      <c r="N81" s="205"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -12629,10 +12595,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="202"/>
-      <c r="L82" s="203"/>
-      <c r="M82" s="203"/>
-      <c r="N82" s="204"/>
+      <c r="K82" s="203"/>
+      <c r="L82" s="204"/>
+      <c r="M82" s="204"/>
+      <c r="N82" s="205"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -12652,10 +12618,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="202"/>
-      <c r="L83" s="203"/>
-      <c r="M83" s="203"/>
-      <c r="N83" s="204"/>
+      <c r="K83" s="203"/>
+      <c r="L83" s="204"/>
+      <c r="M83" s="204"/>
+      <c r="N83" s="205"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -12675,10 +12641,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="202"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="203"/>
-      <c r="N84" s="204"/>
+      <c r="K84" s="203"/>
+      <c r="L84" s="204"/>
+      <c r="M84" s="204"/>
+      <c r="N84" s="205"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -12698,10 +12664,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="202"/>
-      <c r="L85" s="203"/>
-      <c r="M85" s="203"/>
-      <c r="N85" s="204"/>
+      <c r="K85" s="203"/>
+      <c r="L85" s="204"/>
+      <c r="M85" s="204"/>
+      <c r="N85" s="205"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -12721,10 +12687,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="202"/>
-      <c r="L86" s="203"/>
-      <c r="M86" s="203"/>
-      <c r="N86" s="204"/>
+      <c r="K86" s="203"/>
+      <c r="L86" s="204"/>
+      <c r="M86" s="204"/>
+      <c r="N86" s="205"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -12744,10 +12710,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="202"/>
-      <c r="L87" s="203"/>
-      <c r="M87" s="203"/>
-      <c r="N87" s="204"/>
+      <c r="K87" s="203"/>
+      <c r="L87" s="204"/>
+      <c r="M87" s="204"/>
+      <c r="N87" s="205"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -12767,10 +12733,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="203"/>
-      <c r="M88" s="203"/>
-      <c r="N88" s="204"/>
+      <c r="K88" s="203"/>
+      <c r="L88" s="204"/>
+      <c r="M88" s="204"/>
+      <c r="N88" s="205"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -12790,10 +12756,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="202"/>
-      <c r="L89" s="203"/>
-      <c r="M89" s="203"/>
-      <c r="N89" s="204"/>
+      <c r="K89" s="203"/>
+      <c r="L89" s="204"/>
+      <c r="M89" s="204"/>
+      <c r="N89" s="205"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -12813,10 +12779,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="202"/>
-      <c r="L90" s="203"/>
-      <c r="M90" s="203"/>
-      <c r="N90" s="204"/>
+      <c r="K90" s="203"/>
+      <c r="L90" s="204"/>
+      <c r="M90" s="204"/>
+      <c r="N90" s="205"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12836,10 +12802,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="202"/>
-      <c r="L91" s="203"/>
-      <c r="M91" s="203"/>
-      <c r="N91" s="204"/>
+      <c r="K91" s="203"/>
+      <c r="L91" s="204"/>
+      <c r="M91" s="204"/>
+      <c r="N91" s="205"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12859,10 +12825,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="202"/>
-      <c r="L92" s="203"/>
-      <c r="M92" s="203"/>
-      <c r="N92" s="204"/>
+      <c r="K92" s="203"/>
+      <c r="L92" s="204"/>
+      <c r="M92" s="204"/>
+      <c r="N92" s="205"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12882,10 +12848,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="202"/>
-      <c r="L93" s="203"/>
-      <c r="M93" s="203"/>
-      <c r="N93" s="204"/>
+      <c r="K93" s="203"/>
+      <c r="L93" s="204"/>
+      <c r="M93" s="204"/>
+      <c r="N93" s="205"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12905,10 +12871,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="202"/>
-      <c r="L94" s="203"/>
-      <c r="M94" s="203"/>
-      <c r="N94" s="204"/>
+      <c r="K94" s="203"/>
+      <c r="L94" s="204"/>
+      <c r="M94" s="204"/>
+      <c r="N94" s="205"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12921,11 +12887,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -12942,79 +12976,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13043,8 +13009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13060,10 +13026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13093,8 +13059,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13151,7 +13117,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>227</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -13230,7 +13198,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>228</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -13280,7 +13250,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13292,7 +13262,9 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13351,7 +13323,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13388,12 +13360,7 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
-      <c r="A26" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>218</v>
-      </c>
+      <c r="A26" s="73"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -13404,11 +13371,9 @@
       <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
-      <c r="A27" s="42" t="s">
-        <v>229</v>
-      </c>
+      <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13677,24 +13642,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="80"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="212" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="211"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="B50" s="211"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="211"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14135,8 +14102,9 @@
       <c r="J87" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B49:H50"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -14174,10 +14142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14205,8 +14173,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="231">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2213,9 +2213,6 @@
     <t>Biến môi trường</t>
   </si>
   <si>
-    <t>Đổ nguồn combobox đơn vị</t>
-  </si>
-  <si>
     <t>Đổ nguồn combobox chọn kỳ</t>
   </si>
   <si>
@@ -2288,9 +2285,6 @@
   </si>
   <si>
     <t>Đổ nguồn DropdownCheckList đơn vị</t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
   </si>
   <si>
     <t>Thực thi @SQL0003 phụ thuộc @DivisionID của @SQL0001</t>
@@ -2342,6 +2336,18 @@
   </si>
   <si>
     <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t>MM/YYYY</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownChecklist đơn vị</t>
   </si>
 </sst>
 </file>
@@ -3218,114 +3224,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3387,6 +3393,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3398,15 +3413,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3419,6 +3425,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3429,12 +3441,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4362,65 +4368,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="151"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="153" t="s">
+      <c r="A1" s="145"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="152" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152" t="s">
+      <c r="H1" s="146"/>
+      <c r="I1" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="152"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="152" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="148" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="149"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="149"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="150"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4431,56 +4437,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4491,384 +4497,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="142"/>
-      <c r="R26" s="142"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="141"/>
-      <c r="Z28" s="141"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="141"/>
-      <c r="AC28" s="141"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="141"/>
-      <c r="AF28" s="141"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="141"/>
-      <c r="AJ28" s="141"/>
-      <c r="AK28" s="141"/>
-      <c r="AL28" s="141"/>
-      <c r="AM28" s="141"/>
-      <c r="AN28" s="141"/>
-      <c r="AO28" s="141"/>
-      <c r="AP28" s="141"/>
-      <c r="AQ28" s="141"/>
-      <c r="AR28" s="141"/>
-      <c r="AS28" s="141"/>
-      <c r="AT28" s="141"/>
-      <c r="AU28" s="141"/>
-      <c r="AV28" s="141"/>
-      <c r="AW28" s="141"/>
-      <c r="AX28" s="141"/>
-      <c r="AY28" s="141"/>
-      <c r="AZ28" s="141"/>
-      <c r="BA28" s="141"/>
-      <c r="BB28" s="141"/>
-      <c r="BC28" s="141"/>
-      <c r="BD28" s="141"/>
-      <c r="BE28" s="141"/>
-      <c r="BF28" s="141"/>
-      <c r="BG28" s="141"/>
-      <c r="BH28" s="141"/>
-      <c r="BI28" s="141"/>
-      <c r="BJ28" s="141"/>
-      <c r="BK28" s="141"/>
-      <c r="BL28" s="141"/>
-      <c r="BM28" s="141"/>
-      <c r="BN28" s="141"/>
-      <c r="BO28" s="141"/>
-      <c r="BP28" s="141"/>
-      <c r="BQ28" s="141"/>
-      <c r="BR28" s="141"/>
-      <c r="BS28" s="141"/>
-      <c r="BT28" s="141"/>
-      <c r="BU28" s="141"/>
-      <c r="BV28" s="141"/>
-      <c r="BW28" s="141"/>
-      <c r="BX28" s="141"/>
-      <c r="BY28" s="141"/>
-      <c r="BZ28" s="141"/>
-      <c r="CA28" s="141"/>
-      <c r="CB28" s="141"/>
-      <c r="CC28" s="141"/>
-      <c r="CD28" s="141"/>
-      <c r="CE28" s="141"/>
-      <c r="CF28" s="141"/>
-      <c r="CG28" s="141"/>
-      <c r="CH28" s="141"/>
-      <c r="CI28" s="141"/>
-      <c r="CJ28" s="141"/>
-      <c r="CK28" s="141"/>
-      <c r="CL28" s="141"/>
-      <c r="CM28" s="141"/>
-      <c r="CN28" s="141"/>
-      <c r="CO28" s="141"/>
-      <c r="CP28" s="141"/>
-      <c r="CQ28" s="141"/>
-      <c r="CR28" s="141"/>
-      <c r="CS28" s="141"/>
-      <c r="CT28" s="141"/>
-      <c r="CU28" s="141"/>
-      <c r="CV28" s="141"/>
-      <c r="CW28" s="141"/>
-      <c r="CX28" s="141"/>
-      <c r="CY28" s="141"/>
-      <c r="CZ28" s="141"/>
-      <c r="DA28" s="141"/>
-      <c r="DB28" s="141"/>
-      <c r="DC28" s="141"/>
-      <c r="DD28" s="141"/>
-      <c r="DE28" s="141"/>
-      <c r="DF28" s="141"/>
-      <c r="DG28" s="141"/>
-      <c r="DH28" s="141"/>
-      <c r="DI28" s="141"/>
-      <c r="DJ28" s="141"/>
-      <c r="DK28" s="141"/>
-      <c r="DL28" s="141"/>
-      <c r="DM28" s="141"/>
-      <c r="DN28" s="141"/>
-      <c r="DO28" s="141"/>
-      <c r="DP28" s="141"/>
-      <c r="DQ28" s="141"/>
-      <c r="DR28" s="141"/>
-      <c r="DS28" s="141"/>
-      <c r="DT28" s="141"/>
-      <c r="DU28" s="141"/>
-      <c r="DV28" s="141"/>
-      <c r="DW28" s="141"/>
-      <c r="DX28" s="141"/>
-      <c r="DY28" s="141"/>
-      <c r="DZ28" s="141"/>
-      <c r="EA28" s="141"/>
-      <c r="EB28" s="141"/>
-      <c r="EC28" s="141"/>
-      <c r="ED28" s="141"/>
-      <c r="EE28" s="141"/>
-      <c r="EF28" s="141"/>
-      <c r="EG28" s="141"/>
-      <c r="EH28" s="141"/>
-      <c r="EI28" s="141"/>
-      <c r="EJ28" s="141"/>
-      <c r="EK28" s="141"/>
-      <c r="EL28" s="141"/>
-      <c r="EM28" s="141"/>
-      <c r="EN28" s="141"/>
-      <c r="EO28" s="141"/>
-      <c r="EP28" s="141"/>
-      <c r="EQ28" s="141"/>
-      <c r="ER28" s="141"/>
-      <c r="ES28" s="141"/>
-      <c r="ET28" s="141"/>
-      <c r="EU28" s="141"/>
-      <c r="EV28" s="141"/>
-      <c r="EW28" s="141"/>
-      <c r="EX28" s="141"/>
-      <c r="EY28" s="141"/>
-      <c r="EZ28" s="141"/>
-      <c r="FA28" s="141"/>
-      <c r="FB28" s="141"/>
-      <c r="FC28" s="141"/>
-      <c r="FD28" s="141"/>
-      <c r="FE28" s="141"/>
-      <c r="FF28" s="141"/>
-      <c r="FG28" s="141"/>
-      <c r="FH28" s="141"/>
-      <c r="FI28" s="141"/>
-      <c r="FJ28" s="141"/>
-      <c r="FK28" s="141"/>
-      <c r="FL28" s="141"/>
-      <c r="FM28" s="141"/>
-      <c r="FN28" s="141"/>
-      <c r="FO28" s="141"/>
-      <c r="FP28" s="141"/>
-      <c r="FQ28" s="141"/>
-      <c r="FR28" s="141"/>
-      <c r="FS28" s="141"/>
-      <c r="FT28" s="141"/>
-      <c r="FU28" s="141"/>
-      <c r="FV28" s="141"/>
-      <c r="FW28" s="141"/>
-      <c r="FX28" s="141"/>
-      <c r="FY28" s="141"/>
-      <c r="FZ28" s="141"/>
-      <c r="GA28" s="141"/>
-      <c r="GB28" s="141"/>
-      <c r="GC28" s="141"/>
-      <c r="GD28" s="141"/>
-      <c r="GE28" s="141"/>
-      <c r="GF28" s="141"/>
-      <c r="GG28" s="141"/>
-      <c r="GH28" s="141"/>
-      <c r="GI28" s="141"/>
-      <c r="GJ28" s="141"/>
-      <c r="GK28" s="141"/>
-      <c r="GL28" s="141"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="159"/>
+      <c r="AJ28" s="159"/>
+      <c r="AK28" s="159"/>
+      <c r="AL28" s="159"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="159"/>
+      <c r="AO28" s="159"/>
+      <c r="AP28" s="159"/>
+      <c r="AQ28" s="159"/>
+      <c r="AR28" s="159"/>
+      <c r="AS28" s="159"/>
+      <c r="AT28" s="159"/>
+      <c r="AU28" s="159"/>
+      <c r="AV28" s="159"/>
+      <c r="AW28" s="159"/>
+      <c r="AX28" s="159"/>
+      <c r="AY28" s="159"/>
+      <c r="AZ28" s="159"/>
+      <c r="BA28" s="159"/>
+      <c r="BB28" s="159"/>
+      <c r="BC28" s="159"/>
+      <c r="BD28" s="159"/>
+      <c r="BE28" s="159"/>
+      <c r="BF28" s="159"/>
+      <c r="BG28" s="159"/>
+      <c r="BH28" s="159"/>
+      <c r="BI28" s="159"/>
+      <c r="BJ28" s="159"/>
+      <c r="BK28" s="159"/>
+      <c r="BL28" s="159"/>
+      <c r="BM28" s="159"/>
+      <c r="BN28" s="159"/>
+      <c r="BO28" s="159"/>
+      <c r="BP28" s="159"/>
+      <c r="BQ28" s="159"/>
+      <c r="BR28" s="159"/>
+      <c r="BS28" s="159"/>
+      <c r="BT28" s="159"/>
+      <c r="BU28" s="159"/>
+      <c r="BV28" s="159"/>
+      <c r="BW28" s="159"/>
+      <c r="BX28" s="159"/>
+      <c r="BY28" s="159"/>
+      <c r="BZ28" s="159"/>
+      <c r="CA28" s="159"/>
+      <c r="CB28" s="159"/>
+      <c r="CC28" s="159"/>
+      <c r="CD28" s="159"/>
+      <c r="CE28" s="159"/>
+      <c r="CF28" s="159"/>
+      <c r="CG28" s="159"/>
+      <c r="CH28" s="159"/>
+      <c r="CI28" s="159"/>
+      <c r="CJ28" s="159"/>
+      <c r="CK28" s="159"/>
+      <c r="CL28" s="159"/>
+      <c r="CM28" s="159"/>
+      <c r="CN28" s="159"/>
+      <c r="CO28" s="159"/>
+      <c r="CP28" s="159"/>
+      <c r="CQ28" s="159"/>
+      <c r="CR28" s="159"/>
+      <c r="CS28" s="159"/>
+      <c r="CT28" s="159"/>
+      <c r="CU28" s="159"/>
+      <c r="CV28" s="159"/>
+      <c r="CW28" s="159"/>
+      <c r="CX28" s="159"/>
+      <c r="CY28" s="159"/>
+      <c r="CZ28" s="159"/>
+      <c r="DA28" s="159"/>
+      <c r="DB28" s="159"/>
+      <c r="DC28" s="159"/>
+      <c r="DD28" s="159"/>
+      <c r="DE28" s="159"/>
+      <c r="DF28" s="159"/>
+      <c r="DG28" s="159"/>
+      <c r="DH28" s="159"/>
+      <c r="DI28" s="159"/>
+      <c r="DJ28" s="159"/>
+      <c r="DK28" s="159"/>
+      <c r="DL28" s="159"/>
+      <c r="DM28" s="159"/>
+      <c r="DN28" s="159"/>
+      <c r="DO28" s="159"/>
+      <c r="DP28" s="159"/>
+      <c r="DQ28" s="159"/>
+      <c r="DR28" s="159"/>
+      <c r="DS28" s="159"/>
+      <c r="DT28" s="159"/>
+      <c r="DU28" s="159"/>
+      <c r="DV28" s="159"/>
+      <c r="DW28" s="159"/>
+      <c r="DX28" s="159"/>
+      <c r="DY28" s="159"/>
+      <c r="DZ28" s="159"/>
+      <c r="EA28" s="159"/>
+      <c r="EB28" s="159"/>
+      <c r="EC28" s="159"/>
+      <c r="ED28" s="159"/>
+      <c r="EE28" s="159"/>
+      <c r="EF28" s="159"/>
+      <c r="EG28" s="159"/>
+      <c r="EH28" s="159"/>
+      <c r="EI28" s="159"/>
+      <c r="EJ28" s="159"/>
+      <c r="EK28" s="159"/>
+      <c r="EL28" s="159"/>
+      <c r="EM28" s="159"/>
+      <c r="EN28" s="159"/>
+      <c r="EO28" s="159"/>
+      <c r="EP28" s="159"/>
+      <c r="EQ28" s="159"/>
+      <c r="ER28" s="159"/>
+      <c r="ES28" s="159"/>
+      <c r="ET28" s="159"/>
+      <c r="EU28" s="159"/>
+      <c r="EV28" s="159"/>
+      <c r="EW28" s="159"/>
+      <c r="EX28" s="159"/>
+      <c r="EY28" s="159"/>
+      <c r="EZ28" s="159"/>
+      <c r="FA28" s="159"/>
+      <c r="FB28" s="159"/>
+      <c r="FC28" s="159"/>
+      <c r="FD28" s="159"/>
+      <c r="FE28" s="159"/>
+      <c r="FF28" s="159"/>
+      <c r="FG28" s="159"/>
+      <c r="FH28" s="159"/>
+      <c r="FI28" s="159"/>
+      <c r="FJ28" s="159"/>
+      <c r="FK28" s="159"/>
+      <c r="FL28" s="159"/>
+      <c r="FM28" s="159"/>
+      <c r="FN28" s="159"/>
+      <c r="FO28" s="159"/>
+      <c r="FP28" s="159"/>
+      <c r="FQ28" s="159"/>
+      <c r="FR28" s="159"/>
+      <c r="FS28" s="159"/>
+      <c r="FT28" s="159"/>
+      <c r="FU28" s="159"/>
+      <c r="FV28" s="159"/>
+      <c r="FW28" s="159"/>
+      <c r="FX28" s="159"/>
+      <c r="FY28" s="159"/>
+      <c r="FZ28" s="159"/>
+      <c r="GA28" s="159"/>
+      <c r="GB28" s="159"/>
+      <c r="GC28" s="159"/>
+      <c r="GD28" s="159"/>
+      <c r="GE28" s="159"/>
+      <c r="GF28" s="159"/>
+      <c r="GG28" s="159"/>
+      <c r="GH28" s="159"/>
+      <c r="GI28" s="159"/>
+      <c r="GJ28" s="159"/>
+      <c r="GK28" s="159"/>
+      <c r="GL28" s="159"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="142"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4879,16 +4885,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="140"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4900,6 +4906,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4913,28 +4941,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4961,14 +4967,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5161,11 +5167,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="208" t="s">
+      <c r="E27" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5489,10 +5495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5519,8 +5525,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5559,14 +5565,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5581,14 +5587,14 @@
       <c r="D5" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="171" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5599,12 +5605,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5615,12 +5621,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5631,12 +5637,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5647,12 +5653,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5663,12 +5669,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5679,12 +5685,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="165"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5695,12 +5701,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5711,12 +5717,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5727,12 +5733,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5743,12 +5749,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5759,12 +5765,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5775,12 +5781,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5791,12 +5797,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5807,12 +5813,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5823,12 +5829,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5839,12 +5845,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5855,12 +5861,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5871,12 +5877,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5887,12 +5893,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5903,12 +5909,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5919,12 +5925,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5935,12 +5941,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5951,12 +5957,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -5967,12 +5973,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -5983,12 +5989,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -5999,12 +6005,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6015,12 +6021,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6031,12 +6037,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6047,12 +6053,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6063,12 +6069,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6079,12 +6085,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6095,12 +6101,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="162"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6111,12 +6117,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6127,12 +6133,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6143,12 +6149,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6159,12 +6165,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6175,23 +6181,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6207,23 +6222,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6268,10 +6274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6301,8 +6307,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6357,7 +6363,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="186"/>
     </row>
@@ -6445,7 +6451,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="179" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J12" s="180"/>
     </row>
@@ -6850,10 +6856,10 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6878,13 +6884,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6897,7 +6903,7 @@
       </c>
       <c r="I1" s="192"/>
       <c r="J1" s="193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K1" s="194"/>
       <c r="L1" s="195"/>
@@ -6916,11 +6922,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7016,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7107,7 +7113,7 @@
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P7" s="88"/>
     </row>
@@ -7147,7 +7153,7 @@
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P8" s="88"/>
     </row>
@@ -7210,17 +7216,21 @@
         <v>174</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" s="62"/>
+        <v>177</v>
+      </c>
+      <c r="J10" s="62">
+        <v>50</v>
+      </c>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="69"/>
+      <c r="M10" s="69" t="s">
+        <v>227</v>
+      </c>
       <c r="N10" s="69"/>
       <c r="O10" s="69"/>
       <c r="P10" s="88"/>
@@ -7248,25 +7258,25 @@
         <v>175</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="62">
-        <v>50</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="83" t="s">
+        <v>228</v>
+      </c>
       <c r="N11" s="69"/>
       <c r="O11" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P11" s="139" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
@@ -7283,13 +7293,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="G12" s="133" t="s">
         <v>196</v>
-      </c>
-      <c r="G12" s="133" t="s">
-        <v>197</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>170</v>
@@ -7323,13 +7333,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="133" t="s">
-        <v>199</v>
-      </c>
       <c r="G13" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>170</v>
@@ -7395,10 +7405,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="88" t="s">
         <v>203</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>204</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="40" t="s">
@@ -9263,7 +9273,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9299,7 +9309,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="202"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9337,7 +9347,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -9351,15 +9361,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169" t="s">
+      <c r="H4" s="168"/>
+      <c r="I4" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9373,18 +9383,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="200" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="201"/>
-      <c r="K5" s="202"/>
+      <c r="G5" s="199" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="200"/>
+      <c r="I5" s="196" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9395,11 +9405,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="131"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="202"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9410,11 +9420,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="202"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9425,11 +9435,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="202"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9440,11 +9450,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="202"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9455,11 +9465,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="202"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9470,11 +9480,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="202"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9485,11 +9495,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="202"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9500,11 +9510,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="202"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9515,11 +9525,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9530,11 +9540,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="202"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9545,11 +9555,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="202"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9560,11 +9570,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="202"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9575,11 +9585,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="202"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9590,11 +9600,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="202"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9605,11 +9615,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="202"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9620,11 +9630,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="202"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9635,11 +9645,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="202"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9650,11 +9660,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="202"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9665,11 +9675,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="202"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9680,11 +9690,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="202"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9695,11 +9705,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="202"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9710,11 +9720,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="202"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9725,11 +9735,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="202"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9740,11 +9750,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="202"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9755,11 +9765,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="202"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9770,11 +9780,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="202"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9785,11 +9795,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="202"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9807,11 +9817,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="202"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9829,11 +9839,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
-      <c r="K34" s="202"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9851,11 +9861,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="201"/>
-      <c r="K35" s="202"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9873,11 +9883,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
-      <c r="K36" s="202"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9895,11 +9905,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="201"/>
-      <c r="K37" s="202"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9917,11 +9927,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
-      <c r="K38" s="202"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9939,11 +9949,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="202"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9961,11 +9971,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
-      <c r="K40" s="202"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9983,11 +9993,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="202"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10005,11 +10015,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
-      <c r="K42" s="202"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10027,11 +10037,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="201"/>
-      <c r="K43" s="202"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="198"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10049,11 +10059,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
-      <c r="K44" s="202"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10071,11 +10081,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="201"/>
-      <c r="K45" s="202"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10093,11 +10103,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="201"/>
-      <c r="K46" s="202"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10115,11 +10125,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="202"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="198"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10137,11 +10147,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
-      <c r="K48" s="202"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="198"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10159,11 +10169,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="201"/>
-      <c r="K49" s="202"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="198"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10181,11 +10191,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="202"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="198"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10203,11 +10213,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="202"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="198"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10225,11 +10235,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="202"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="198"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10247,11 +10257,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="202"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="198"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10269,11 +10279,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="202"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="198"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10291,11 +10301,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="202"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
+      <c r="K55" s="198"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10313,11 +10323,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
-      <c r="K56" s="202"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="198"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10329,6 +10339,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10343,99 +10446,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10453,8 +10463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10483,16 +10493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10527,14 +10537,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10576,7 +10586,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10621,7 +10631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10637,13 +10647,13 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J5" s="132" t="s">
         <v>181</v>
@@ -10664,10 +10674,10 @@
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10686,13 +10696,13 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>183</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J6" s="132" t="s">
         <v>182</v>
@@ -10710,13 +10720,13 @@
         <v>186</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10735,7 +10745,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>183</v>
@@ -10744,10 +10754,10 @@
         <v>55</v>
       </c>
       <c r="J7" s="132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L7" s="204"/>
       <c r="M7" s="204"/>
@@ -10760,10 +10770,10 @@
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -12887,47 +12897,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -12944,43 +12950,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13009,8 +13019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13026,10 +13036,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13059,8 +13069,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13118,7 +13128,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13199,7 +13209,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13250,7 +13260,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13263,7 +13273,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -13323,7 +13333,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13373,7 +13383,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13642,26 +13652,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="212" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-      <c r="H49" s="211"/>
+      <c r="B49" s="207" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="208"/>
+      <c r="D49" s="208"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="208"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="211"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14142,10 +14152,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14173,8 +14183,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVN90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\05.HOANGTRAN\20160215_Bao cao khach hang ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$42</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="224">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2142,9 +2142,6 @@
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>Chọn kỳ</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
   </si>
   <si>
@@ -2154,9 +2151,6 @@
     <t>Button</t>
   </si>
   <si>
-    <t>RadioButton</t>
-  </si>
-  <si>
     <t>ComboBox</t>
   </si>
   <si>
@@ -2166,12 +2160,6 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>RadioBttn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period </t>
-  </si>
-  <si>
     <t>DivisionID</t>
   </si>
   <si>
@@ -2182,9 +2170,6 @@
   </si>
   <si>
     <t>DateTime</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t>SQL_CMN_000002</t>
@@ -2298,9 +2283,6 @@
   </si>
   <si>
     <t>Tham khảo sheet Code Standar</t>
-  </si>
-  <si>
-    <t>MM/YYYY</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
@@ -2871,7 +2853,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3195,114 +3177,129 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3369,6 +3366,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3376,13 +3388,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3396,6 +3408,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3414,44 +3435,8 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3534,19 +3519,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3566,8 +3551,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2333625" y="1447800"/>
-          <a:ext cx="4657725" cy="2781300"/>
+          <a:off x="2495550" y="2066925"/>
+          <a:ext cx="3819525" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4378,65 +4363,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="110"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="111"/>
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
@@ -4447,56 +4432,56 @@
       <c r="R13" s="111"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
       <c r="M16" s="112"/>
@@ -4507,384 +4492,384 @@
       <c r="R16" s="112"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="137"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="136"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
-      <c r="AQ28" s="132"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="132"/>
-      <c r="AT28" s="132"/>
-      <c r="AU28" s="132"/>
-      <c r="AV28" s="132"/>
-      <c r="AW28" s="132"/>
-      <c r="AX28" s="132"/>
-      <c r="AY28" s="132"/>
-      <c r="AZ28" s="132"/>
-      <c r="BA28" s="132"/>
-      <c r="BB28" s="132"/>
-      <c r="BC28" s="132"/>
-      <c r="BD28" s="132"/>
-      <c r="BE28" s="132"/>
-      <c r="BF28" s="132"/>
-      <c r="BG28" s="132"/>
-      <c r="BH28" s="132"/>
-      <c r="BI28" s="132"/>
-      <c r="BJ28" s="132"/>
-      <c r="BK28" s="132"/>
-      <c r="BL28" s="132"/>
-      <c r="BM28" s="132"/>
-      <c r="BN28" s="132"/>
-      <c r="BO28" s="132"/>
-      <c r="BP28" s="132"/>
-      <c r="BQ28" s="132"/>
-      <c r="BR28" s="132"/>
-      <c r="BS28" s="132"/>
-      <c r="BT28" s="132"/>
-      <c r="BU28" s="132"/>
-      <c r="BV28" s="132"/>
-      <c r="BW28" s="132"/>
-      <c r="BX28" s="132"/>
-      <c r="BY28" s="132"/>
-      <c r="BZ28" s="132"/>
-      <c r="CA28" s="132"/>
-      <c r="CB28" s="132"/>
-      <c r="CC28" s="132"/>
-      <c r="CD28" s="132"/>
-      <c r="CE28" s="132"/>
-      <c r="CF28" s="132"/>
-      <c r="CG28" s="132"/>
-      <c r="CH28" s="132"/>
-      <c r="CI28" s="132"/>
-      <c r="CJ28" s="132"/>
-      <c r="CK28" s="132"/>
-      <c r="CL28" s="132"/>
-      <c r="CM28" s="132"/>
-      <c r="CN28" s="132"/>
-      <c r="CO28" s="132"/>
-      <c r="CP28" s="132"/>
-      <c r="CQ28" s="132"/>
-      <c r="CR28" s="132"/>
-      <c r="CS28" s="132"/>
-      <c r="CT28" s="132"/>
-      <c r="CU28" s="132"/>
-      <c r="CV28" s="132"/>
-      <c r="CW28" s="132"/>
-      <c r="CX28" s="132"/>
-      <c r="CY28" s="132"/>
-      <c r="CZ28" s="132"/>
-      <c r="DA28" s="132"/>
-      <c r="DB28" s="132"/>
-      <c r="DC28" s="132"/>
-      <c r="DD28" s="132"/>
-      <c r="DE28" s="132"/>
-      <c r="DF28" s="132"/>
-      <c r="DG28" s="132"/>
-      <c r="DH28" s="132"/>
-      <c r="DI28" s="132"/>
-      <c r="DJ28" s="132"/>
-      <c r="DK28" s="132"/>
-      <c r="DL28" s="132"/>
-      <c r="DM28" s="132"/>
-      <c r="DN28" s="132"/>
-      <c r="DO28" s="132"/>
-      <c r="DP28" s="132"/>
-      <c r="DQ28" s="132"/>
-      <c r="DR28" s="132"/>
-      <c r="DS28" s="132"/>
-      <c r="DT28" s="132"/>
-      <c r="DU28" s="132"/>
-      <c r="DV28" s="132"/>
-      <c r="DW28" s="132"/>
-      <c r="DX28" s="132"/>
-      <c r="DY28" s="132"/>
-      <c r="DZ28" s="132"/>
-      <c r="EA28" s="132"/>
-      <c r="EB28" s="132"/>
-      <c r="EC28" s="132"/>
-      <c r="ED28" s="132"/>
-      <c r="EE28" s="132"/>
-      <c r="EF28" s="132"/>
-      <c r="EG28" s="132"/>
-      <c r="EH28" s="132"/>
-      <c r="EI28" s="132"/>
-      <c r="EJ28" s="132"/>
-      <c r="EK28" s="132"/>
-      <c r="EL28" s="132"/>
-      <c r="EM28" s="132"/>
-      <c r="EN28" s="132"/>
-      <c r="EO28" s="132"/>
-      <c r="EP28" s="132"/>
-      <c r="EQ28" s="132"/>
-      <c r="ER28" s="132"/>
-      <c r="ES28" s="132"/>
-      <c r="ET28" s="132"/>
-      <c r="EU28" s="132"/>
-      <c r="EV28" s="132"/>
-      <c r="EW28" s="132"/>
-      <c r="EX28" s="132"/>
-      <c r="EY28" s="132"/>
-      <c r="EZ28" s="132"/>
-      <c r="FA28" s="132"/>
-      <c r="FB28" s="132"/>
-      <c r="FC28" s="132"/>
-      <c r="FD28" s="132"/>
-      <c r="FE28" s="132"/>
-      <c r="FF28" s="132"/>
-      <c r="FG28" s="132"/>
-      <c r="FH28" s="132"/>
-      <c r="FI28" s="132"/>
-      <c r="FJ28" s="132"/>
-      <c r="FK28" s="132"/>
-      <c r="FL28" s="132"/>
-      <c r="FM28" s="132"/>
-      <c r="FN28" s="132"/>
-      <c r="FO28" s="132"/>
-      <c r="FP28" s="132"/>
-      <c r="FQ28" s="132"/>
-      <c r="FR28" s="132"/>
-      <c r="FS28" s="132"/>
-      <c r="FT28" s="132"/>
-      <c r="FU28" s="132"/>
-      <c r="FV28" s="132"/>
-      <c r="FW28" s="132"/>
-      <c r="FX28" s="132"/>
-      <c r="FY28" s="132"/>
-      <c r="FZ28" s="132"/>
-      <c r="GA28" s="132"/>
-      <c r="GB28" s="132"/>
-      <c r="GC28" s="132"/>
-      <c r="GD28" s="132"/>
-      <c r="GE28" s="132"/>
-      <c r="GF28" s="132"/>
-      <c r="GG28" s="132"/>
-      <c r="GH28" s="132"/>
-      <c r="GI28" s="132"/>
-      <c r="GJ28" s="132"/>
-      <c r="GK28" s="132"/>
-      <c r="GL28" s="132"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="113"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="114"/>
@@ -4895,16 +4880,16 @@
       <c r="R30" s="114"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="114"/>
@@ -4916,6 +4901,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4929,28 +4936,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4977,14 +4962,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5177,11 +5162,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="203"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="216"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5488,7 +5473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:J21"/>
     </sheetView>
   </sheetViews>
@@ -5505,10 +5490,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5519,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5535,8 +5520,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5575,14 +5560,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="119">
@@ -5597,14 +5582,14 @@
       <c r="D5" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="162" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="E5" s="166" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="84">
@@ -5615,12 +5600,12 @@
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="63"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="85">
@@ -5631,12 +5616,12 @@
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="86">
@@ -5647,12 +5632,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="87">
@@ -5663,12 +5648,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="88">
@@ -5679,12 +5664,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="89">
@@ -5695,12 +5680,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="90">
@@ -5711,12 +5696,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="91">
@@ -5727,12 +5712,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="92">
@@ -5743,12 +5728,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5759,12 +5744,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="84">
@@ -5775,12 +5760,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="85">
@@ -5791,12 +5776,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="86">
@@ -5807,12 +5792,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="87">
@@ -5823,12 +5808,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="88">
@@ -5839,12 +5824,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="89">
@@ -5855,12 +5840,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="90">
@@ -5871,12 +5856,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="91">
@@ -5887,12 +5872,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="92">
@@ -5903,12 +5888,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5919,12 +5904,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5935,12 +5920,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="84">
@@ -5951,12 +5936,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="85">
@@ -5967,12 +5952,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="86">
@@ -5983,12 +5968,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="87">
@@ -5999,12 +5984,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="88">
@@ -6015,12 +6000,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="89">
@@ -6031,12 +6016,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="90">
@@ -6047,12 +6032,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="91">
@@ -6063,12 +6048,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="92">
@@ -6079,12 +6064,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6095,12 +6080,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="84">
@@ -6111,12 +6096,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="85">
@@ -6127,12 +6112,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="86">
@@ -6143,12 +6128,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="87">
@@ -6159,12 +6144,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="88">
@@ -6175,12 +6160,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="89">
@@ -6191,23 +6176,32 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6223,23 +6217,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6265,7 +6250,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6284,10 +6269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6317,8 +6302,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6348,20 +6333,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="167" t="s">
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="168"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6372,10 +6357,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="176" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="177"/>
+      <c r="I5" s="181" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="182"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6386,8 +6371,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6398,8 +6383,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6410,8 +6395,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6422,8 +6407,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6434,8 +6419,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6446,10 +6431,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="167" t="s">
+      <c r="I11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="168"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6460,10 +6445,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="171"/>
+      <c r="I12" s="175" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6473,9 +6458,9 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6486,8 +6471,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="173"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6498,8 +6483,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6510,8 +6495,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6522,8 +6507,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6534,8 +6519,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6546,8 +6531,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6558,8 +6543,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="173"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6570,8 +6555,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6582,8 +6567,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="173"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6594,8 +6579,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6606,8 +6591,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6618,8 +6603,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6630,8 +6615,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6642,8 +6627,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6654,8 +6639,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6666,8 +6651,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6678,8 +6663,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6690,8 +6675,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6702,8 +6687,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6714,8 +6699,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6726,8 +6711,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6738,8 +6723,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6750,8 +6735,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6762,8 +6747,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6774,8 +6759,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="173"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6786,8 +6771,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="173"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6798,8 +6783,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6810,8 +6795,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="173"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6822,8 +6807,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6834,8 +6819,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="175"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6863,13 +6848,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6894,13 +6879,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6908,15 +6893,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="182" t="s">
+      <c r="H1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="184" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="185"/>
-      <c r="L1" s="186"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="189" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="190"/>
+      <c r="L1" s="191"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6932,11 +6917,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6944,16 +6929,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="182" t="s">
+      <c r="H2" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184" t="str">
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng ngưng sử dụng</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6976,7 +6961,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7032,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F5" s="129" t="str">
         <f>'Update History'!F1</f>
@@ -7043,8 +7028,8 @@
         <v>106</v>
       </c>
       <c r="I5" s="119"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="119"/>
       <c r="M5" s="129"/>
       <c r="N5" s="129"/>
@@ -7053,7 +7038,7 @@
     </row>
     <row r="6" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>161</v>
@@ -7068,28 +7053,32 @@
         <v>163</v>
       </c>
       <c r="F6" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="129"/>
+        <v>169</v>
+      </c>
+      <c r="G6" s="129" t="s">
+        <v>169</v>
+      </c>
       <c r="H6" s="129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="119"/>
+        <v>174</v>
+      </c>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="119" t="s">
+        <v>150</v>
+      </c>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
-      <c r="O6" s="129">
-        <v>1</v>
+      <c r="O6" s="129" t="s">
+        <v>207</v>
       </c>
       <c r="P6" s="129"/>
     </row>
     <row r="7" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>161</v>
@@ -7101,35 +7090,35 @@
         <v>3</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7" s="129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="119" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
+        <v>174</v>
+      </c>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="119" t="s">
         <v>150</v>
       </c>
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P7" s="129"/>
     </row>
-    <row r="8" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:16" s="25" customFormat="1" ht="22.5">
       <c r="A8" s="35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>161</v>
@@ -7141,35 +7130,37 @@
         <v>4</v>
       </c>
       <c r="E8" s="130" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" s="129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="129" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
+        <v>199</v>
+      </c>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="129"/>
+      <c r="M8" s="129" t="s">
+        <v>212</v>
+      </c>
       <c r="N8" s="129"/>
-      <c r="O8" s="129" t="s">
-        <v>212</v>
-      </c>
-      <c r="P8" s="129"/>
-    </row>
-    <row r="9" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="O8" s="129"/>
+      <c r="P8" s="129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>161</v>
@@ -7181,31 +7172,33 @@
         <v>5</v>
       </c>
       <c r="E9" s="130" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F9" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="119"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="119" t="s">
+        <v>150</v>
+      </c>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
-      <c r="O9" s="129">
-        <v>0</v>
-      </c>
+      <c r="O9" s="129"/>
       <c r="P9" s="129"/>
     </row>
     <row r="10" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>161</v>
@@ -7217,35 +7210,33 @@
         <v>6</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G10" s="129" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H10" s="129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
+        <v>173</v>
+      </c>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="129" t="s">
-        <v>217</v>
-      </c>
+      <c r="M10" s="129"/>
       <c r="N10" s="129"/>
       <c r="O10" s="129"/>
       <c r="P10" s="129"/>
     </row>
-    <row r="11" spans="1:16" s="25" customFormat="1" ht="22.5">
+    <row r="11" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>161</v>
@@ -7260,34 +7251,24 @@
         <v>166</v>
       </c>
       <c r="F11" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="129" t="s">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G11" s="129"/>
       <c r="H11" s="129" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="129" t="s">
-        <v>218</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I11" s="119"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="129"/>
       <c r="O11" s="129"/>
-      <c r="P11" s="129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1">
+      <c r="P11" s="129"/>
+    </row>
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>161</v>
@@ -7299,25 +7280,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="130" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F12" s="129" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="129" t="s">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G12" s="129"/>
       <c r="H12" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="119" t="s">
-        <v>150</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I12" s="119"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="129"/>
       <c r="N12" s="129"/>
       <c r="O12" s="129"/>
@@ -7325,185 +7300,83 @@
     </row>
     <row r="13" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="35">
-        <v>9</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="35">
-        <v>51</v>
-      </c>
-      <c r="D13" s="35">
-        <v>9</v>
-      </c>
-      <c r="E13" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="129" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="129"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="129"/>
       <c r="O13" s="129"/>
       <c r="P13" s="129"/>
     </row>
     <row r="14" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="35">
-        <v>11</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="35">
-        <v>51</v>
-      </c>
-      <c r="D14" s="35">
-        <v>10</v>
-      </c>
-      <c r="E14" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="129" t="s">
-        <v>176</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="129"/>
-      <c r="H14" s="129" t="s">
-        <v>168</v>
-      </c>
+      <c r="H14" s="119"/>
       <c r="I14" s="119"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="119"/>
-      <c r="M14" s="129"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="129"/>
       <c r="O14" s="129"/>
       <c r="P14" s="129"/>
     </row>
     <row r="15" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="35">
-        <v>13</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="35">
-        <v>51</v>
-      </c>
-      <c r="D15" s="35">
-        <v>11</v>
-      </c>
-      <c r="E15" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="129" t="s">
-        <v>201</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="129"/>
-      <c r="H15" s="129" t="s">
-        <v>168</v>
-      </c>
+      <c r="H15" s="119"/>
       <c r="I15" s="119"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="119"/>
-      <c r="M15" s="129"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="129"/>
       <c r="O15" s="129"/>
       <c r="P15" s="129"/>
     </row>
-    <row r="16" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-    </row>
-    <row r="17" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="35">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-    </row>
-    <row r="18" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="35">
-        <v>16</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-    </row>
-    <row r="19" spans="1:16" ht="12" customHeight="1">
-      <c r="A19" s="33">
+    <row r="16" spans="1:16" ht="12" customHeight="1">
+      <c r="A16" s="33">
         <v>50</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7514,23 +7387,23 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G16"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H16 H5:H7">
+      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H10">
+      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16:O16">
+      <formula1>"   ,l"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
+      <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9 H14:H19">
-      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
-      <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13">
-      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:O19">
-      <formula1>"   ,l"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L16">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8535,7 +8408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="124"/>
@@ -8571,7 +8444,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="190"/>
+      <c r="A2" s="200"/>
       <c r="B2" s="125"/>
       <c r="C2" s="118"/>
       <c r="D2" s="31" t="s">
@@ -8609,7 +8482,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="115" t="s">
         <v>32</v>
@@ -8623,15 +8496,15 @@
       <c r="F4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
     </row>
     <row r="5" spans="1:13" s="25" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="35">
@@ -8644,19 +8517,19 @@
         <v>161</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="205" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="206"/>
-      <c r="G5" s="207" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="208"/>
-      <c r="I5" s="209" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="210"/>
-      <c r="K5" s="211"/>
+      <c r="E5" s="132" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="133"/>
+      <c r="G5" s="197" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="198"/>
+      <c r="I5" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="202"/>
+      <c r="K5" s="203"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -8667,11 +8540,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="122"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="193"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8682,11 +8555,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8697,11 +8570,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="193"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8712,11 +8585,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="193"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8727,11 +8600,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="193"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8742,11 +8615,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="193"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8757,11 +8630,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="193"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8772,11 +8645,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="193"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="196"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8787,11 +8660,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="193"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8802,11 +8675,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="193"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8817,11 +8690,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="193"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="196"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8832,11 +8705,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="193"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8847,11 +8720,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="193"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8862,11 +8735,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="193"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="196"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8877,11 +8750,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="193"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8892,11 +8765,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="193"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8907,11 +8780,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="193"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="196"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8922,11 +8795,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="193"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8937,37 +8810,22 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="193"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="196"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="43">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G12:H12"/>
@@ -8980,15 +8838,30 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24">
@@ -9037,24 +8910,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="197" t="str">
+      <c r="J1" s="207" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="197"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9081,22 +8954,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="197" t="str">
+      <c r="J2" s="207" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="197"/>
+      <c r="K2" s="207"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -9130,7 +9003,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>97</v>
@@ -9153,12 +9026,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="167" t="s">
+      <c r="K4" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="168"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="173"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -9175,7 +9048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="216" customFormat="1" ht="22.5">
+    <row r="5" spans="1:21" s="135" customFormat="1" ht="22.5">
       <c r="A5" s="130">
         <v>1</v>
       </c>
@@ -9186,45 +9059,45 @@
         <v>51</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
       <c r="G5" s="129" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H5" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="208" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="213" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="128" t="s">
-        <v>187</v>
-      </c>
-      <c r="P5" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q5" s="212" t="s">
-        <v>227</v>
-      </c>
-      <c r="R5" s="212" t="s">
-        <v>190</v>
+      <c r="Q5" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="134" t="s">
+        <v>185</v>
       </c>
       <c r="S5" s="129" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="216" customFormat="1" ht="11.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="135" customFormat="1" ht="11.25">
       <c r="A6" s="130">
         <v>2</v>
       </c>
@@ -9238,40 +9111,40 @@
       <c r="E6" s="130"/>
       <c r="F6" s="130"/>
       <c r="G6" s="129" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H6" s="129" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J6" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="K6" s="213" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="214"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="215"/>
+        <v>177</v>
+      </c>
+      <c r="K6" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="210"/>
       <c r="O6" s="128" t="s">
         <v>134</v>
       </c>
       <c r="P6" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="212" t="s">
-        <v>228</v>
-      </c>
-      <c r="R6" s="212" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="Q6" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="R6" s="134" t="s">
+        <v>185</v>
       </c>
       <c r="S6" s="129" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="216" customFormat="1" ht="80.25" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="135" customFormat="1" ht="80.25" customHeight="1">
       <c r="A7" s="130">
         <v>3</v>
       </c>
@@ -9285,37 +9158,37 @@
       <c r="E7" s="130"/>
       <c r="F7" s="130"/>
       <c r="G7" s="129" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H7" s="129" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I7" s="129" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="213" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="215"/>
+        <v>194</v>
+      </c>
+      <c r="K7" s="208" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="210"/>
       <c r="O7" s="128" t="s">
         <v>134</v>
       </c>
       <c r="P7" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="212" t="s">
-        <v>228</v>
-      </c>
-      <c r="R7" s="212" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="Q7" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" s="134" t="s">
+        <v>185</v>
       </c>
       <c r="S7" s="128" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -9331,10 +9204,10 @@
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="196"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="206"/>
       <c r="O8" s="83"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="72"/>
@@ -9356,10 +9229,10 @@
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="196"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="206"/>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
       <c r="Q9" s="72"/>
@@ -9381,10 +9254,10 @@
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="196"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
       <c r="O10" s="83"/>
       <c r="P10" s="83"/>
       <c r="Q10" s="72"/>
@@ -9406,10 +9279,10 @@
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195"/>
-      <c r="N11" s="196"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="206"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="72"/>
@@ -9431,10 +9304,10 @@
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="78"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="196"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="206"/>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="72"/>
@@ -9456,10 +9329,10 @@
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="78"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="196"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="205"/>
+      <c r="N13" s="206"/>
       <c r="O13" s="77"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="72"/>
@@ -9532,10 +9405,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9565,8 +9438,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9624,7 +9497,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -9705,7 +9578,7 @@
       <c r="A12" s="76"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -9756,7 +9629,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -9769,7 +9642,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -9829,7 +9702,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="76"/>
       <c r="C23" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -9879,7 +9752,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="81" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="43"/>
@@ -10148,26 +10021,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="198" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="199"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
+      <c r="B49" s="211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="212"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+      <c r="H49" s="212"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="199"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
+      <c r="B50" s="212"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="212"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="212"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -10648,10 +10521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10679,8 +10552,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$K$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="218">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2172,15 +2172,9 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>SQL_CMN_000002</t>
-  </si>
-  <si>
     <t>@SQL0001</t>
   </si>
   <si>
-    <t>@SQL0002</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -2190,16 +2184,10 @@
     <t>AT1411</t>
   </si>
   <si>
-    <t>@@DivisionID</t>
-  </si>
-  <si>
     <t>@UserID</t>
   </si>
   <si>
     <t>Biến môi trường</t>
-  </si>
-  <si>
-    <t>Đổ nguồn combobox chọn kỳ</t>
   </si>
   <si>
     <t>Load</t>
@@ -2279,16 +2267,10 @@
     <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
   </si>
   <si>
-    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
-  </si>
-  <si>
     <t>Tham khảo sheet Code Standar</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Đổ nguồn Combobox chọn kỳ</t>
   </si>
   <si>
     <t>Đổ nguồn DropdownChecklist đơn vị</t>
@@ -2853,7 +2835,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,9 +3174,33 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,23 +3246,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3297,9 +3288,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3361,11 +3349,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3375,27 +3384,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3434,9 +3422,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4363,65 +4348,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="110"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="111"/>
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
@@ -4432,56 +4417,56 @@
       <c r="R13" s="111"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
       <c r="M16" s="112"/>
@@ -4492,384 +4477,384 @@
       <c r="R16" s="112"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+      <c r="AN28" s="139"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="139"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="139"/>
+      <c r="AT28" s="139"/>
+      <c r="AU28" s="139"/>
+      <c r="AV28" s="139"/>
+      <c r="AW28" s="139"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="139"/>
+      <c r="BA28" s="139"/>
+      <c r="BB28" s="139"/>
+      <c r="BC28" s="139"/>
+      <c r="BD28" s="139"/>
+      <c r="BE28" s="139"/>
+      <c r="BF28" s="139"/>
+      <c r="BG28" s="139"/>
+      <c r="BH28" s="139"/>
+      <c r="BI28" s="139"/>
+      <c r="BJ28" s="139"/>
+      <c r="BK28" s="139"/>
+      <c r="BL28" s="139"/>
+      <c r="BM28" s="139"/>
+      <c r="BN28" s="139"/>
+      <c r="BO28" s="139"/>
+      <c r="BP28" s="139"/>
+      <c r="BQ28" s="139"/>
+      <c r="BR28" s="139"/>
+      <c r="BS28" s="139"/>
+      <c r="BT28" s="139"/>
+      <c r="BU28" s="139"/>
+      <c r="BV28" s="139"/>
+      <c r="BW28" s="139"/>
+      <c r="BX28" s="139"/>
+      <c r="BY28" s="139"/>
+      <c r="BZ28" s="139"/>
+      <c r="CA28" s="139"/>
+      <c r="CB28" s="139"/>
+      <c r="CC28" s="139"/>
+      <c r="CD28" s="139"/>
+      <c r="CE28" s="139"/>
+      <c r="CF28" s="139"/>
+      <c r="CG28" s="139"/>
+      <c r="CH28" s="139"/>
+      <c r="CI28" s="139"/>
+      <c r="CJ28" s="139"/>
+      <c r="CK28" s="139"/>
+      <c r="CL28" s="139"/>
+      <c r="CM28" s="139"/>
+      <c r="CN28" s="139"/>
+      <c r="CO28" s="139"/>
+      <c r="CP28" s="139"/>
+      <c r="CQ28" s="139"/>
+      <c r="CR28" s="139"/>
+      <c r="CS28" s="139"/>
+      <c r="CT28" s="139"/>
+      <c r="CU28" s="139"/>
+      <c r="CV28" s="139"/>
+      <c r="CW28" s="139"/>
+      <c r="CX28" s="139"/>
+      <c r="CY28" s="139"/>
+      <c r="CZ28" s="139"/>
+      <c r="DA28" s="139"/>
+      <c r="DB28" s="139"/>
+      <c r="DC28" s="139"/>
+      <c r="DD28" s="139"/>
+      <c r="DE28" s="139"/>
+      <c r="DF28" s="139"/>
+      <c r="DG28" s="139"/>
+      <c r="DH28" s="139"/>
+      <c r="DI28" s="139"/>
+      <c r="DJ28" s="139"/>
+      <c r="DK28" s="139"/>
+      <c r="DL28" s="139"/>
+      <c r="DM28" s="139"/>
+      <c r="DN28" s="139"/>
+      <c r="DO28" s="139"/>
+      <c r="DP28" s="139"/>
+      <c r="DQ28" s="139"/>
+      <c r="DR28" s="139"/>
+      <c r="DS28" s="139"/>
+      <c r="DT28" s="139"/>
+      <c r="DU28" s="139"/>
+      <c r="DV28" s="139"/>
+      <c r="DW28" s="139"/>
+      <c r="DX28" s="139"/>
+      <c r="DY28" s="139"/>
+      <c r="DZ28" s="139"/>
+      <c r="EA28" s="139"/>
+      <c r="EB28" s="139"/>
+      <c r="EC28" s="139"/>
+      <c r="ED28" s="139"/>
+      <c r="EE28" s="139"/>
+      <c r="EF28" s="139"/>
+      <c r="EG28" s="139"/>
+      <c r="EH28" s="139"/>
+      <c r="EI28" s="139"/>
+      <c r="EJ28" s="139"/>
+      <c r="EK28" s="139"/>
+      <c r="EL28" s="139"/>
+      <c r="EM28" s="139"/>
+      <c r="EN28" s="139"/>
+      <c r="EO28" s="139"/>
+      <c r="EP28" s="139"/>
+      <c r="EQ28" s="139"/>
+      <c r="ER28" s="139"/>
+      <c r="ES28" s="139"/>
+      <c r="ET28" s="139"/>
+      <c r="EU28" s="139"/>
+      <c r="EV28" s="139"/>
+      <c r="EW28" s="139"/>
+      <c r="EX28" s="139"/>
+      <c r="EY28" s="139"/>
+      <c r="EZ28" s="139"/>
+      <c r="FA28" s="139"/>
+      <c r="FB28" s="139"/>
+      <c r="FC28" s="139"/>
+      <c r="FD28" s="139"/>
+      <c r="FE28" s="139"/>
+      <c r="FF28" s="139"/>
+      <c r="FG28" s="139"/>
+      <c r="FH28" s="139"/>
+      <c r="FI28" s="139"/>
+      <c r="FJ28" s="139"/>
+      <c r="FK28" s="139"/>
+      <c r="FL28" s="139"/>
+      <c r="FM28" s="139"/>
+      <c r="FN28" s="139"/>
+      <c r="FO28" s="139"/>
+      <c r="FP28" s="139"/>
+      <c r="FQ28" s="139"/>
+      <c r="FR28" s="139"/>
+      <c r="FS28" s="139"/>
+      <c r="FT28" s="139"/>
+      <c r="FU28" s="139"/>
+      <c r="FV28" s="139"/>
+      <c r="FW28" s="139"/>
+      <c r="FX28" s="139"/>
+      <c r="FY28" s="139"/>
+      <c r="FZ28" s="139"/>
+      <c r="GA28" s="139"/>
+      <c r="GB28" s="139"/>
+      <c r="GC28" s="139"/>
+      <c r="GD28" s="139"/>
+      <c r="GE28" s="139"/>
+      <c r="GF28" s="139"/>
+      <c r="GG28" s="139"/>
+      <c r="GH28" s="139"/>
+      <c r="GI28" s="139"/>
+      <c r="GJ28" s="139"/>
+      <c r="GK28" s="139"/>
+      <c r="GL28" s="139"/>
       <c r="GM28" s="113"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="114"/>
@@ -4880,16 +4865,16 @@
       <c r="R30" s="114"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="114"/>
@@ -4901,28 +4886,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4936,6 +4899,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4962,14 +4947,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5162,11 +5147,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="214" t="s">
+      <c r="E27" s="216" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="218"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5473,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:J21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5490,10 +5475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5504,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5520,8 +5505,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5532,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5560,14 +5545,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="119">
@@ -5582,14 +5567,14 @@
       <c r="D5" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="84">
@@ -5600,12 +5585,12 @@
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="63"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="85">
@@ -5616,12 +5601,12 @@
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="86">
@@ -5632,12 +5617,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="87">
@@ -5648,12 +5633,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="88">
@@ -5664,12 +5649,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="89">
@@ -5680,12 +5665,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="90">
@@ -5696,12 +5681,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="91">
@@ -5712,12 +5697,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="92">
@@ -5728,12 +5713,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5744,12 +5729,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="84">
@@ -5760,12 +5745,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="85">
@@ -5776,12 +5761,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="86">
@@ -5792,12 +5777,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="87">
@@ -5808,12 +5793,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="88">
@@ -5824,12 +5809,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="89">
@@ -5840,12 +5825,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="90">
@@ -5856,12 +5841,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="91">
@@ -5872,12 +5857,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="92">
@@ -5888,12 +5873,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5904,12 +5889,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5920,12 +5905,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="84">
@@ -5936,12 +5921,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="85">
@@ -5952,12 +5937,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="86">
@@ -5968,12 +5953,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="87">
@@ -5984,12 +5969,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="88">
@@ -6000,12 +5985,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="89">
@@ -6016,12 +6001,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="90">
@@ -6032,12 +6017,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="91">
@@ -6048,12 +6033,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="92">
@@ -6064,12 +6049,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6080,12 +6065,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="84">
@@ -6096,12 +6081,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="85">
@@ -6112,12 +6097,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="86">
@@ -6128,12 +6113,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="87">
@@ -6144,12 +6129,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="88">
@@ -6160,12 +6145,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="89">
@@ -6176,32 +6161,23 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6217,14 +6193,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6269,10 +6254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6302,8 +6287,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6333,20 +6318,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="172" t="s">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6357,10 +6342,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="181" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="182"/>
+      <c r="I5" s="183" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="184"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6371,8 +6356,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6383,8 +6368,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6395,8 +6380,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6407,8 +6392,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="184"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6419,8 +6404,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6431,10 +6416,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="172" t="s">
+      <c r="I11" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="173"/>
+      <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6445,10 +6430,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="175" t="s">
-        <v>216</v>
-      </c>
-      <c r="J12" s="176"/>
+      <c r="I12" s="177" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="178"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6458,9 +6443,9 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6471,8 +6456,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6483,8 +6468,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6495,8 +6480,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6507,8 +6492,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="178"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6519,8 +6504,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6531,8 +6516,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="178"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6543,8 +6528,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="178"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6555,8 +6540,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6567,8 +6552,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6579,8 +6564,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6591,8 +6576,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6603,8 +6588,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6615,8 +6600,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6627,8 +6612,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="178"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6639,8 +6624,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="178"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6651,8 +6636,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6663,8 +6648,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6675,8 +6660,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6687,8 +6672,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="178"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6699,8 +6684,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="178"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6711,8 +6696,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6723,8 +6708,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6735,8 +6720,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6747,8 +6732,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="178"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6759,8 +6744,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="178"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6771,8 +6756,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="178"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6783,8 +6768,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="178"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6795,8 +6780,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="178"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6807,8 +6792,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6819,8 +6804,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6850,11 +6835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D12"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6879,13 +6864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6893,15 +6878,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="187" t="s">
+      <c r="H1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="190"/>
-      <c r="L1" s="191"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="192"/>
+      <c r="L1" s="193"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6917,11 +6902,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6929,16 +6914,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="187" t="s">
+      <c r="H2" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="str">
+      <c r="I2" s="190"/>
+      <c r="J2" s="191" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng ngưng sử dụng</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="191"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="193"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6961,7 +6946,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7017,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F5" s="129" t="str">
         <f>'Update History'!F1</f>
@@ -7072,7 +7057,7 @@
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
       <c r="O6" s="129" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P6" s="129"/>
     </row>
@@ -7112,7 +7097,7 @@
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P7" s="129"/>
     </row>
@@ -7139,10 +7124,10 @@
         <v>171</v>
       </c>
       <c r="H8" s="129" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J8" s="131"/>
       <c r="K8" s="131"/>
@@ -7150,12 +7135,12 @@
         <v>150</v>
       </c>
       <c r="M8" s="129" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
       <c r="P8" s="129" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1">
@@ -7172,13 +7157,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="130" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F9" s="129" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G9" s="129" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H9" s="129" t="s">
         <v>168</v>
@@ -7210,13 +7195,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="129" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" s="129" t="s">
         <v>168</v>
@@ -7280,10 +7265,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="130" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12" s="129" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G12" s="129"/>
       <c r="H12" s="129" t="s">
@@ -8408,7 +8393,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="124"/>
@@ -8444,7 +8429,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="125"/>
       <c r="C2" s="118"/>
       <c r="D2" s="31" t="s">
@@ -8482,7 +8467,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C4" s="115" t="s">
         <v>32</v>
@@ -8496,15 +8481,15 @@
       <c r="F4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164" t="s">
+      <c r="H4" s="167"/>
+      <c r="I4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:13" s="25" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="35">
@@ -8518,18 +8503,18 @@
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="132" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" s="133"/>
-      <c r="G5" s="197" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="J5" s="202"/>
-      <c r="K5" s="203"/>
+      <c r="G5" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="195"/>
+      <c r="I5" s="200" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="201"/>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -8540,11 +8525,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="122"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8555,11 +8540,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8570,11 +8555,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8585,11 +8570,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8600,11 +8585,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8615,11 +8600,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="205"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8630,11 +8615,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="205"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8645,11 +8630,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="205"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8660,11 +8645,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="205"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8675,11 +8660,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="205"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8690,11 +8675,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="205"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8705,11 +8690,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="205"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8720,11 +8705,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="205"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8735,11 +8720,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="205"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8750,11 +8735,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="205"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8765,11 +8750,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="205"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8780,11 +8765,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="196"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="205"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8795,11 +8780,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="196"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="205"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8810,22 +8795,35 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="196"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="43">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G12:H12"/>
@@ -8842,26 +8840,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24">
@@ -8877,10 +8862,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048379"/>
+  <dimension ref="A1:U1048378"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8910,24 +8895,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="207" t="str">
+      <c r="J1" s="209" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="207"/>
+      <c r="K1" s="209"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8954,22 +8939,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="207" t="str">
+      <c r="J2" s="209" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="207"/>
+      <c r="K2" s="209"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -9003,7 +8988,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>97</v>
@@ -9026,12 +9011,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="173"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -9059,46 +9044,46 @@
         <v>51</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
       <c r="G5" s="129" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H5" s="129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="129" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J5" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="128" t="s">
-        <v>182</v>
-      </c>
       <c r="P5" s="128" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S5" s="129" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="135" customFormat="1" ht="11.25">
-      <c r="A6" s="130">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="135" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="130" t="s">
@@ -9111,89 +9096,67 @@
       <c r="E6" s="130"/>
       <c r="F6" s="130"/>
       <c r="G6" s="129" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H6" s="129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="J6" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="210"/>
+        <v>190</v>
+      </c>
+      <c r="K6" s="210" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="212"/>
       <c r="O6" s="128" t="s">
         <v>134</v>
       </c>
       <c r="P6" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="R6" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="R6" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="S6" s="129" t="s">
+      <c r="S6" s="128" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="135" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A7" s="130">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="11.25">
+      <c r="A7" s="136">
         <v>3</v>
       </c>
-      <c r="B7" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="130">
-        <v>51</v>
-      </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="129" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="208" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="R7" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="S7" s="128" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A8" s="33">
-        <v>5</v>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="136">
+        <v>4</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -9204,10 +9167,10 @@
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="206"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="208"/>
       <c r="O8" s="83"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="72"/>
@@ -9217,8 +9180,8 @@
       <c r="U8" s="62"/>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="33">
-        <v>6</v>
+      <c r="A9" s="136">
+        <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -9229,10 +9192,10 @@
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="206"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="208"/>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
       <c r="Q9" s="72"/>
@@ -9242,8 +9205,8 @@
       <c r="U9" s="62"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="33">
-        <v>7</v>
+      <c r="A10" s="136">
+        <v>6</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -9254,21 +9217,21 @@
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="72"/>
       <c r="R10" s="71"/>
       <c r="S10" s="78"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
     </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="33">
-        <v>8</v>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="11.25">
+      <c r="A11" s="136">
+        <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -9279,10 +9242,10 @@
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="208"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="72"/>
@@ -9291,85 +9254,59 @@
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A12" s="33">
-        <v>9</v>
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="136">
+        <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="82"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="78"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="206"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="K12" s="206"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
       <c r="Q12" s="72"/>
       <c r="R12" s="71"/>
-      <c r="S12" s="78"/>
+      <c r="S12" s="82"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="33">
-        <v>10</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-    </row>
-    <row r="1048379" spans="17:17" ht="12" customHeight="1">
-      <c r="Q1048379" s="72"/>
+    <row r="1048378" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048378" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048379:Q1048576 Q5:Q13"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048378:Q1048576 Q5:Q12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H12">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I12">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R12">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9389,7 +9326,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9405,10 +9342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9438,8 +9375,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9497,7 +9434,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -9578,7 +9515,7 @@
       <c r="A12" s="76"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -9629,7 +9566,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -9641,9 +9578,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>210</v>
-      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -9702,7 +9637,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="76"/>
       <c r="C23" s="43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -9752,7 +9687,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="81" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="43"/>
@@ -10021,26 +9956,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="211" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="212"/>
-      <c r="D49" s="212"/>
-      <c r="E49" s="212"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="212"/>
-      <c r="H49" s="212"/>
+      <c r="B49" s="213" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="214"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="214"/>
+      <c r="H49" s="214"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="212"/>
-      <c r="C50" s="212"/>
-      <c r="D50" s="212"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="212"/>
-      <c r="G50" s="212"/>
-      <c r="H50" s="212"/>
+      <c r="B50" s="214"/>
+      <c r="C50" s="214"/>
+      <c r="D50" s="214"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="214"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -10521,10 +10456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10552,8 +10487,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMF3020_Khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="854" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="219">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2310,6 +2310,9 @@
   </si>
   <si>
     <t>Cho phép người tùy chỉnh điều kiện lọc báo cáo theo yêu cầu.</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3180,114 +3183,114 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3349,17 +3352,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3374,15 +3386,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4348,65 +4351,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="151" t="s">
+      <c r="A1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150" t="s">
+      <c r="H1" s="144"/>
+      <c r="I1" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="150"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="150" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="146" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="110"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
       <c r="K13" s="111"/>
       <c r="L13" s="111"/>
       <c r="M13" s="111"/>
@@ -4417,56 +4420,56 @@
       <c r="R13" s="111"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
       <c r="M16" s="112"/>
@@ -4477,384 +4480,384 @@
       <c r="R16" s="112"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
-      <c r="AN28" s="139"/>
-      <c r="AO28" s="139"/>
-      <c r="AP28" s="139"/>
-      <c r="AQ28" s="139"/>
-      <c r="AR28" s="139"/>
-      <c r="AS28" s="139"/>
-      <c r="AT28" s="139"/>
-      <c r="AU28" s="139"/>
-      <c r="AV28" s="139"/>
-      <c r="AW28" s="139"/>
-      <c r="AX28" s="139"/>
-      <c r="AY28" s="139"/>
-      <c r="AZ28" s="139"/>
-      <c r="BA28" s="139"/>
-      <c r="BB28" s="139"/>
-      <c r="BC28" s="139"/>
-      <c r="BD28" s="139"/>
-      <c r="BE28" s="139"/>
-      <c r="BF28" s="139"/>
-      <c r="BG28" s="139"/>
-      <c r="BH28" s="139"/>
-      <c r="BI28" s="139"/>
-      <c r="BJ28" s="139"/>
-      <c r="BK28" s="139"/>
-      <c r="BL28" s="139"/>
-      <c r="BM28" s="139"/>
-      <c r="BN28" s="139"/>
-      <c r="BO28" s="139"/>
-      <c r="BP28" s="139"/>
-      <c r="BQ28" s="139"/>
-      <c r="BR28" s="139"/>
-      <c r="BS28" s="139"/>
-      <c r="BT28" s="139"/>
-      <c r="BU28" s="139"/>
-      <c r="BV28" s="139"/>
-      <c r="BW28" s="139"/>
-      <c r="BX28" s="139"/>
-      <c r="BY28" s="139"/>
-      <c r="BZ28" s="139"/>
-      <c r="CA28" s="139"/>
-      <c r="CB28" s="139"/>
-      <c r="CC28" s="139"/>
-      <c r="CD28" s="139"/>
-      <c r="CE28" s="139"/>
-      <c r="CF28" s="139"/>
-      <c r="CG28" s="139"/>
-      <c r="CH28" s="139"/>
-      <c r="CI28" s="139"/>
-      <c r="CJ28" s="139"/>
-      <c r="CK28" s="139"/>
-      <c r="CL28" s="139"/>
-      <c r="CM28" s="139"/>
-      <c r="CN28" s="139"/>
-      <c r="CO28" s="139"/>
-      <c r="CP28" s="139"/>
-      <c r="CQ28" s="139"/>
-      <c r="CR28" s="139"/>
-      <c r="CS28" s="139"/>
-      <c r="CT28" s="139"/>
-      <c r="CU28" s="139"/>
-      <c r="CV28" s="139"/>
-      <c r="CW28" s="139"/>
-      <c r="CX28" s="139"/>
-      <c r="CY28" s="139"/>
-      <c r="CZ28" s="139"/>
-      <c r="DA28" s="139"/>
-      <c r="DB28" s="139"/>
-      <c r="DC28" s="139"/>
-      <c r="DD28" s="139"/>
-      <c r="DE28" s="139"/>
-      <c r="DF28" s="139"/>
-      <c r="DG28" s="139"/>
-      <c r="DH28" s="139"/>
-      <c r="DI28" s="139"/>
-      <c r="DJ28" s="139"/>
-      <c r="DK28" s="139"/>
-      <c r="DL28" s="139"/>
-      <c r="DM28" s="139"/>
-      <c r="DN28" s="139"/>
-      <c r="DO28" s="139"/>
-      <c r="DP28" s="139"/>
-      <c r="DQ28" s="139"/>
-      <c r="DR28" s="139"/>
-      <c r="DS28" s="139"/>
-      <c r="DT28" s="139"/>
-      <c r="DU28" s="139"/>
-      <c r="DV28" s="139"/>
-      <c r="DW28" s="139"/>
-      <c r="DX28" s="139"/>
-      <c r="DY28" s="139"/>
-      <c r="DZ28" s="139"/>
-      <c r="EA28" s="139"/>
-      <c r="EB28" s="139"/>
-      <c r="EC28" s="139"/>
-      <c r="ED28" s="139"/>
-      <c r="EE28" s="139"/>
-      <c r="EF28" s="139"/>
-      <c r="EG28" s="139"/>
-      <c r="EH28" s="139"/>
-      <c r="EI28" s="139"/>
-      <c r="EJ28" s="139"/>
-      <c r="EK28" s="139"/>
-      <c r="EL28" s="139"/>
-      <c r="EM28" s="139"/>
-      <c r="EN28" s="139"/>
-      <c r="EO28" s="139"/>
-      <c r="EP28" s="139"/>
-      <c r="EQ28" s="139"/>
-      <c r="ER28" s="139"/>
-      <c r="ES28" s="139"/>
-      <c r="ET28" s="139"/>
-      <c r="EU28" s="139"/>
-      <c r="EV28" s="139"/>
-      <c r="EW28" s="139"/>
-      <c r="EX28" s="139"/>
-      <c r="EY28" s="139"/>
-      <c r="EZ28" s="139"/>
-      <c r="FA28" s="139"/>
-      <c r="FB28" s="139"/>
-      <c r="FC28" s="139"/>
-      <c r="FD28" s="139"/>
-      <c r="FE28" s="139"/>
-      <c r="FF28" s="139"/>
-      <c r="FG28" s="139"/>
-      <c r="FH28" s="139"/>
-      <c r="FI28" s="139"/>
-      <c r="FJ28" s="139"/>
-      <c r="FK28" s="139"/>
-      <c r="FL28" s="139"/>
-      <c r="FM28" s="139"/>
-      <c r="FN28" s="139"/>
-      <c r="FO28" s="139"/>
-      <c r="FP28" s="139"/>
-      <c r="FQ28" s="139"/>
-      <c r="FR28" s="139"/>
-      <c r="FS28" s="139"/>
-      <c r="FT28" s="139"/>
-      <c r="FU28" s="139"/>
-      <c r="FV28" s="139"/>
-      <c r="FW28" s="139"/>
-      <c r="FX28" s="139"/>
-      <c r="FY28" s="139"/>
-      <c r="FZ28" s="139"/>
-      <c r="GA28" s="139"/>
-      <c r="GB28" s="139"/>
-      <c r="GC28" s="139"/>
-      <c r="GD28" s="139"/>
-      <c r="GE28" s="139"/>
-      <c r="GF28" s="139"/>
-      <c r="GG28" s="139"/>
-      <c r="GH28" s="139"/>
-      <c r="GI28" s="139"/>
-      <c r="GJ28" s="139"/>
-      <c r="GK28" s="139"/>
-      <c r="GL28" s="139"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="157"/>
+      <c r="AB28" s="157"/>
+      <c r="AC28" s="157"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="157"/>
+      <c r="AH28" s="157"/>
+      <c r="AI28" s="157"/>
+      <c r="AJ28" s="157"/>
+      <c r="AK28" s="157"/>
+      <c r="AL28" s="157"/>
+      <c r="AM28" s="157"/>
+      <c r="AN28" s="157"/>
+      <c r="AO28" s="157"/>
+      <c r="AP28" s="157"/>
+      <c r="AQ28" s="157"/>
+      <c r="AR28" s="157"/>
+      <c r="AS28" s="157"/>
+      <c r="AT28" s="157"/>
+      <c r="AU28" s="157"/>
+      <c r="AV28" s="157"/>
+      <c r="AW28" s="157"/>
+      <c r="AX28" s="157"/>
+      <c r="AY28" s="157"/>
+      <c r="AZ28" s="157"/>
+      <c r="BA28" s="157"/>
+      <c r="BB28" s="157"/>
+      <c r="BC28" s="157"/>
+      <c r="BD28" s="157"/>
+      <c r="BE28" s="157"/>
+      <c r="BF28" s="157"/>
+      <c r="BG28" s="157"/>
+      <c r="BH28" s="157"/>
+      <c r="BI28" s="157"/>
+      <c r="BJ28" s="157"/>
+      <c r="BK28" s="157"/>
+      <c r="BL28" s="157"/>
+      <c r="BM28" s="157"/>
+      <c r="BN28" s="157"/>
+      <c r="BO28" s="157"/>
+      <c r="BP28" s="157"/>
+      <c r="BQ28" s="157"/>
+      <c r="BR28" s="157"/>
+      <c r="BS28" s="157"/>
+      <c r="BT28" s="157"/>
+      <c r="BU28" s="157"/>
+      <c r="BV28" s="157"/>
+      <c r="BW28" s="157"/>
+      <c r="BX28" s="157"/>
+      <c r="BY28" s="157"/>
+      <c r="BZ28" s="157"/>
+      <c r="CA28" s="157"/>
+      <c r="CB28" s="157"/>
+      <c r="CC28" s="157"/>
+      <c r="CD28" s="157"/>
+      <c r="CE28" s="157"/>
+      <c r="CF28" s="157"/>
+      <c r="CG28" s="157"/>
+      <c r="CH28" s="157"/>
+      <c r="CI28" s="157"/>
+      <c r="CJ28" s="157"/>
+      <c r="CK28" s="157"/>
+      <c r="CL28" s="157"/>
+      <c r="CM28" s="157"/>
+      <c r="CN28" s="157"/>
+      <c r="CO28" s="157"/>
+      <c r="CP28" s="157"/>
+      <c r="CQ28" s="157"/>
+      <c r="CR28" s="157"/>
+      <c r="CS28" s="157"/>
+      <c r="CT28" s="157"/>
+      <c r="CU28" s="157"/>
+      <c r="CV28" s="157"/>
+      <c r="CW28" s="157"/>
+      <c r="CX28" s="157"/>
+      <c r="CY28" s="157"/>
+      <c r="CZ28" s="157"/>
+      <c r="DA28" s="157"/>
+      <c r="DB28" s="157"/>
+      <c r="DC28" s="157"/>
+      <c r="DD28" s="157"/>
+      <c r="DE28" s="157"/>
+      <c r="DF28" s="157"/>
+      <c r="DG28" s="157"/>
+      <c r="DH28" s="157"/>
+      <c r="DI28" s="157"/>
+      <c r="DJ28" s="157"/>
+      <c r="DK28" s="157"/>
+      <c r="DL28" s="157"/>
+      <c r="DM28" s="157"/>
+      <c r="DN28" s="157"/>
+      <c r="DO28" s="157"/>
+      <c r="DP28" s="157"/>
+      <c r="DQ28" s="157"/>
+      <c r="DR28" s="157"/>
+      <c r="DS28" s="157"/>
+      <c r="DT28" s="157"/>
+      <c r="DU28" s="157"/>
+      <c r="DV28" s="157"/>
+      <c r="DW28" s="157"/>
+      <c r="DX28" s="157"/>
+      <c r="DY28" s="157"/>
+      <c r="DZ28" s="157"/>
+      <c r="EA28" s="157"/>
+      <c r="EB28" s="157"/>
+      <c r="EC28" s="157"/>
+      <c r="ED28" s="157"/>
+      <c r="EE28" s="157"/>
+      <c r="EF28" s="157"/>
+      <c r="EG28" s="157"/>
+      <c r="EH28" s="157"/>
+      <c r="EI28" s="157"/>
+      <c r="EJ28" s="157"/>
+      <c r="EK28" s="157"/>
+      <c r="EL28" s="157"/>
+      <c r="EM28" s="157"/>
+      <c r="EN28" s="157"/>
+      <c r="EO28" s="157"/>
+      <c r="EP28" s="157"/>
+      <c r="EQ28" s="157"/>
+      <c r="ER28" s="157"/>
+      <c r="ES28" s="157"/>
+      <c r="ET28" s="157"/>
+      <c r="EU28" s="157"/>
+      <c r="EV28" s="157"/>
+      <c r="EW28" s="157"/>
+      <c r="EX28" s="157"/>
+      <c r="EY28" s="157"/>
+      <c r="EZ28" s="157"/>
+      <c r="FA28" s="157"/>
+      <c r="FB28" s="157"/>
+      <c r="FC28" s="157"/>
+      <c r="FD28" s="157"/>
+      <c r="FE28" s="157"/>
+      <c r="FF28" s="157"/>
+      <c r="FG28" s="157"/>
+      <c r="FH28" s="157"/>
+      <c r="FI28" s="157"/>
+      <c r="FJ28" s="157"/>
+      <c r="FK28" s="157"/>
+      <c r="FL28" s="157"/>
+      <c r="FM28" s="157"/>
+      <c r="FN28" s="157"/>
+      <c r="FO28" s="157"/>
+      <c r="FP28" s="157"/>
+      <c r="FQ28" s="157"/>
+      <c r="FR28" s="157"/>
+      <c r="FS28" s="157"/>
+      <c r="FT28" s="157"/>
+      <c r="FU28" s="157"/>
+      <c r="FV28" s="157"/>
+      <c r="FW28" s="157"/>
+      <c r="FX28" s="157"/>
+      <c r="FY28" s="157"/>
+      <c r="FZ28" s="157"/>
+      <c r="GA28" s="157"/>
+      <c r="GB28" s="157"/>
+      <c r="GC28" s="157"/>
+      <c r="GD28" s="157"/>
+      <c r="GE28" s="157"/>
+      <c r="GF28" s="157"/>
+      <c r="GG28" s="157"/>
+      <c r="GH28" s="157"/>
+      <c r="GI28" s="157"/>
+      <c r="GJ28" s="157"/>
+      <c r="GK28" s="157"/>
+      <c r="GL28" s="157"/>
       <c r="GM28" s="113"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="140"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="114"/>
@@ -4865,16 +4868,16 @@
       <c r="R30" s="114"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="114"/>
@@ -4886,6 +4889,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4899,28 +4924,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5458,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28:J28"/>
     </sheetView>
   </sheetViews>
@@ -5475,10 +5478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5505,8 +5508,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5545,14 +5548,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="119">
@@ -5567,14 +5570,14 @@
       <c r="D5" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="169" t="s">
+      <c r="E5" s="168" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="84">
@@ -5585,12 +5588,12 @@
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="63"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="85">
@@ -5601,12 +5604,12 @@
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="86">
@@ -5617,12 +5620,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="87">
@@ -5633,12 +5636,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="88">
@@ -5649,12 +5652,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="89">
@@ -5665,12 +5668,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="90">
@@ -5681,12 +5684,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="91">
@@ -5697,12 +5700,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="92">
@@ -5713,12 +5716,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5729,12 +5732,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="84">
@@ -5745,12 +5748,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="85">
@@ -5761,12 +5764,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="86">
@@ -5777,12 +5780,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="87">
@@ -5793,12 +5796,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="88">
@@ -5809,12 +5812,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="89">
@@ -5825,12 +5828,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="90">
@@ -5841,12 +5844,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="91">
@@ -5857,12 +5860,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="92">
@@ -5873,12 +5876,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5889,12 +5892,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5905,12 +5908,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="84">
@@ -5921,12 +5924,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="85">
@@ -5937,12 +5940,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="86">
@@ -5953,12 +5956,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="87">
@@ -5969,12 +5972,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="88">
@@ -5985,12 +5988,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="89">
@@ -6001,12 +6004,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="90">
@@ -6017,12 +6020,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="91">
@@ -6033,12 +6036,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="92">
@@ -6049,12 +6052,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6065,12 +6068,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="84">
@@ -6081,12 +6084,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="85">
@@ -6097,12 +6100,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="86">
@@ -6113,12 +6116,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="87">
@@ -6129,12 +6132,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="88">
@@ -6145,12 +6148,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="89">
@@ -6161,23 +6164,32 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6193,23 +6205,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6254,10 +6257,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6287,8 +6290,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6839,7 +6842,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6864,13 +6867,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6902,11 +6905,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7052,7 +7055,7 @@
       <c r="J6" s="131"/>
       <c r="K6" s="131"/>
       <c r="L6" s="119" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
@@ -7092,7 +7095,7 @@
       <c r="J7" s="131"/>
       <c r="K7" s="131"/>
       <c r="L7" s="119" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
@@ -7132,7 +7135,7 @@
       <c r="J8" s="131"/>
       <c r="K8" s="131"/>
       <c r="L8" s="119" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M8" s="129" t="s">
         <v>207</v>
@@ -7174,7 +7177,7 @@
       <c r="J9" s="131"/>
       <c r="K9" s="131"/>
       <c r="L9" s="119" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
@@ -7212,7 +7215,7 @@
       <c r="J10" s="131"/>
       <c r="K10" s="131"/>
       <c r="L10" s="119" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M10" s="129"/>
       <c r="N10" s="129"/>
@@ -8393,7 +8396,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="124"/>
@@ -8429,7 +8432,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="202"/>
       <c r="B2" s="125"/>
       <c r="C2" s="118"/>
       <c r="D2" s="31" t="s">
@@ -8481,15 +8484,15 @@
       <c r="F4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:13" s="25" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="35">
@@ -8506,15 +8509,15 @@
         <v>200</v>
       </c>
       <c r="F5" s="133"/>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="199" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="195"/>
-      <c r="I5" s="200" t="s">
+      <c r="H5" s="200"/>
+      <c r="I5" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="201"/>
-      <c r="K5" s="202"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -8525,11 +8528,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="122"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="205"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8540,11 +8543,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8555,11 +8558,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8570,11 +8573,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="205"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8585,11 +8588,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8600,11 +8603,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="205"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8615,11 +8618,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="205"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8630,11 +8633,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="205"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8645,11 +8648,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8660,11 +8663,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="205"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8675,11 +8678,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="205"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8690,11 +8693,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="205"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8705,11 +8708,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8720,11 +8723,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8735,11 +8738,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="205"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8750,11 +8753,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="205"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8765,11 +8768,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="205"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8780,11 +8783,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8795,35 +8798,22 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="43">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G12:H12"/>
@@ -8840,13 +8830,26 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24">
@@ -8895,16 +8898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -8939,14 +8942,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9325,7 +9328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -9342,10 +9345,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9375,8 +9378,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10456,10 +10459,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10487,8 +10490,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
